--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="209">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>month_year_repeat_group</t>
   </si>
   <si>
     <t>---</t>
@@ -663,14 +666,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,146 +1121,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,15 +1619,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FG5"/>
+  <dimension ref="A1:FH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FK23" sqref="FK23"/>
+    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
+      <selection activeCell="FF10" sqref="FF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:163">
+    <row r="1" spans="1:164">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,1969 +2117,1972 @@
       <c r="FG1" t="s">
         <v>162</v>
       </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:163">
+    <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
         <v>166</v>
       </c>
-      <c r="E2" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AE2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AH2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AP2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AQ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AR2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AS2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AV2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AW2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AX2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AY2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AZ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BD2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BE2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BF2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BG2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BH2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BJ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BK2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BL2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BM2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BN2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BO2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BP2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BQ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BR2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BS2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BT2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BU2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BV2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BW2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BX2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BZ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CD2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CE2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CF2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CG2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CH2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CJ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CK2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CL2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CM2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CN2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CO2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CP2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CQ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CR2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CS2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CT2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CU2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CV2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CW2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CX2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CY2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CZ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DD2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DE2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DF2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DG2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DH2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DJ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DK2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DL2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DM2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DN2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DO2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DP2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DQ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DR2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DS2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DT2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DU2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DV2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DW2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DX2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DY2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DZ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="ED2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EE2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EF2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EG2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EH2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EJ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EK2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EL2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EM2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EN2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EO2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EP2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EQ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="ER2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="ES2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="ET2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EU2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EV2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EW2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EX2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EY2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EZ2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FA2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FC2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FD2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FE2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="FF2" t="s">
+        <v>171</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:163">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>164</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>164</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>164</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>164</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>164</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>164</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>188</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>189</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:163">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" t="s">
+        <v>164</v>
+      </c>
+      <c r="V4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>164</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>164</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>164</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>193</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:163">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" t="s">
+        <v>164</v>
+      </c>
+      <c r="T5" t="s">
+        <v>164</v>
+      </c>
+      <c r="U5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>164</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>164</v>
+      </c>
+      <c r="DQ5" t="s">
         <v>170</v>
       </c>
-      <c r="FG2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:163">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>175</v>
-      </c>
-      <c r="R3" t="s">
-        <v>175</v>
-      </c>
-      <c r="S3" t="s">
-        <v>175</v>
-      </c>
-      <c r="T3" t="s">
-        <v>175</v>
-      </c>
-      <c r="U3" t="s">
-        <v>175</v>
-      </c>
-      <c r="V3" t="s">
-        <v>175</v>
-      </c>
-      <c r="W3" t="s">
-        <v>175</v>
-      </c>
-      <c r="X3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>185</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>186</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>163</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>163</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>163</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>187</v>
-      </c>
-      <c r="FF3" t="s">
+      <c r="DR5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>198</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>199</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>176</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>201</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>164</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EM5" t="s">
         <v>188</v>
       </c>
-      <c r="FG3" t="s">
+      <c r="EN5" t="s">
+        <v>202</v>
+      </c>
+      <c r="EO5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:163">
-      <c r="A4" t="s">
+      <c r="EP5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>188</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>203</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>204</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>205</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>206</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>207</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>208</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>188</v>
+      </c>
+      <c r="FF5" t="s">
         <v>189</v>
       </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" t="s">
-        <v>163</v>
-      </c>
-      <c r="M4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R4" t="s">
-        <v>163</v>
-      </c>
-      <c r="S4" t="s">
-        <v>163</v>
-      </c>
-      <c r="T4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V4" t="s">
-        <v>163</v>
-      </c>
-      <c r="W4" t="s">
-        <v>163</v>
-      </c>
-      <c r="X4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>163</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>163</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>163</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>192</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:163">
-      <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O5" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>163</v>
-      </c>
-      <c r="R5" t="s">
-        <v>163</v>
-      </c>
-      <c r="S5" t="s">
-        <v>163</v>
-      </c>
-      <c r="T5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U5" t="s">
-        <v>163</v>
-      </c>
-      <c r="V5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>169</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>195</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>175</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>196</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>197</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>175</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>198</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>175</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>175</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>200</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>200</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>200</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>163</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>201</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>187</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>202</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>203</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>204</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>205</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>206</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>207</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>163</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>163</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>163</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>163</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>187</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>188</v>
-      </c>
       <c r="FG5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,11 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="457">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
   <si>
+    <t>form.question2.District</t>
+  </si>
+  <si>
+    <t>form.question2.facility</t>
+  </si>
+  <si>
     <t>form.period_under_review_starting_point.startingMonth</t>
   </si>
   <si>
@@ -44,12 +50,6 @@
     <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
   </si>
   <si>
-    <t>form.question2.District</t>
-  </si>
-  <si>
-    <t>form.question2.facility</t>
-  </si>
-  <si>
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
   </si>
   <si>
@@ -71,9 +71,6 @@
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
   </si>
   <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pediatricBloodPressure</t>
-  </si>
-  <si>
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
   </si>
   <si>
@@ -92,12 +89,18 @@
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
   </si>
   <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
+  </si>
+  <si>
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
   </si>
   <si>
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
   </si>
   <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
+  </si>
+  <si>
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
   </si>
   <si>
@@ -110,283 +113,301 @@
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
   </si>
   <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sufficientReusableSupply</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sufficientReusableSupplyReason</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsCleanArea</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsElevated</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingWalls</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingCeiling</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableKits</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.otherKit</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.suppliesAvailable</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.temperatureHIVtestKits</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.storageforRTKs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKstoPatientNotTested</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientHTSPrivacy</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsroomSanitationSupplies</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsdisposableGloves</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteCondoms</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomDemonstration</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condom-stock-outs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsAvailableToday</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsExpiringStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dentalDams</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomCompatibleLubricants</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.is_there_a_plan_for_monitoring_condom_supply</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicines</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableDrugs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicinesStockOuts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.antibiotics</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesics</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesicsStockOut</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStockouts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStorage</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesSecureArea</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesLabelling</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesOrganisation</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesDispensed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesShelflife</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastesegregated</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.loose_non_containerized</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.disposal_of_non_reusable_instruments</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.colorCodedContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteManagementJobAids</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.non_burn_technology</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.fenced_lockable_waste_disposal_area</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorAutowayPit</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incinerator</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorPollutionControl</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.IncineratorSecure</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastetemporaryStorage</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainersAtBed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffabletoExplainEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffKnowledgeonReportingStructure</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPeligibility</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPTimeframe</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteType</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pepMedicinesAvailability</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.packsKitsAvailable</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.traininingEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.followuptoEmergencyYes</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.trainingonAdrenaline</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clinicalStaffTraining</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyMaterialsinStock</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCart</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartYes</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencySuppliesStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.highlyRecommendedItems</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTextingCompliance</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTextingClientInformed</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTextingClientContact</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTexting-systemtoEnsureClientFollowup</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTextingFollowupStandadisation</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayTextingProceduresforNonResponses</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayClientDataConfidentiality</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayClientDataSecurity</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayStaffTrained</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayOngoingStaffTraining</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayAdverseEventSignsReminder</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayAdverseEventManangementProtocols</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayFollowUpTexts</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayAddressingofClientConcerns</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayRegularAudits</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayCorrectiveActions</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayClientFeedback</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.two-wayStaffFeedback</t>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupply</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupplyReason</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsCleanArea</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsElevated</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingWalls</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingCeiling</t>
+  </si>
+  <si>
+    <t>form.question3.availableKits</t>
+  </si>
+  <si>
+    <t>form.question3.otherKit</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesAvailable</t>
+  </si>
+  <si>
+    <t>form.question3.temperatureHIVtestKits</t>
+  </si>
+  <si>
+    <t>form.question3.storageforRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKstoPatientNotTested</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesComment</t>
+  </si>
+  <si>
+    <t>form.question5.clientHTSPrivacy</t>
+  </si>
+  <si>
+    <t>form.question5.htsContainers</t>
+  </si>
+  <si>
+    <t>form.question5.htsroomSanitationSupplies</t>
+  </si>
+  <si>
+    <t>form.question5.htsdisposableGloves</t>
+  </si>
+  <si>
+    <t>form.question5.siteCondoms</t>
+  </si>
+  <si>
+    <t>form.question5.condomDemonstration</t>
+  </si>
+  <si>
+    <t>form.question5.condom-stock-outs</t>
+  </si>
+  <si>
+    <t>form.question5.condomsAvailableToday</t>
+  </si>
+  <si>
+    <t>form.question5.condomsExpiringStatus</t>
+  </si>
+  <si>
+    <t>form.question5.dentalDams</t>
+  </si>
+  <si>
+    <t>form.question5.condomCompatibleLubricants</t>
+  </si>
+  <si>
+    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
+  </si>
+  <si>
+    <t>form.question5.htsandSTIComment</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesTemperature</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicines</t>
+  </si>
+  <si>
+    <t>form.question6.availableDrugs</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicinesStockOuts</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesics</t>
+  </si>
+  <si>
+    <t>form.question6.antibiotics</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesicsStockOut</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStockouts</t>
+  </si>
+  <si>
+    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStorage</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesSecureArea</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesLabelling</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesOrganisation</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesDispensed</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesShelflife</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesComment</t>
+  </si>
+  <si>
+    <t>form.question7.documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>form.question7.dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>form.question7.writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>form.question7.wastesegregated</t>
+  </si>
+  <si>
+    <t>form.question7.loose_non_containerized</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainers</t>
+  </si>
+  <si>
+    <t>form.question7.disposal_of_non_reusable_instruments</t>
+  </si>
+  <si>
+    <t>form.question7.colorCodedContainers</t>
+  </si>
+  <si>
+    <t>form.question7.wasteManagementJobAids</t>
+  </si>
+  <si>
+    <t>form.question7.non_burn_technology</t>
+  </si>
+  <si>
+    <t>form.question7.fenced_lockable_waste_disposal_area</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorAutowayPit</t>
+  </si>
+  <si>
+    <t>form.question7.incinerator</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorPollutionControl</t>
+  </si>
+  <si>
+    <t>form.question7.IncineratorSecure</t>
+  </si>
+  <si>
+    <t>form.question7.wastetemporaryStorage</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainersAtBed</t>
+  </si>
+  <si>
+    <t>form.question7.medicineDispensingComment</t>
+  </si>
+  <si>
+    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.question8.staffKnowledgeonReportingStructure</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPeligibility</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPTimeframe</t>
+  </si>
+  <si>
+    <t>form.question8.siteType</t>
+  </si>
+  <si>
+    <t>form.question8.pepMedicinesAvailability</t>
+  </si>
+  <si>
+    <t>form.question8.packsKitsAvailable</t>
+  </si>
+  <si>
+    <t>form.question8.traininingEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.question8.followuptoEmergencyYes</t>
+  </si>
+  <si>
+    <t>form.question8.trainingonAdrenaline</t>
+  </si>
+  <si>
+    <t>form.question8.clinicalStaffTraining</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyMaterialsinStock</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartYes</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartStatus</t>
+  </si>
+  <si>
+    <t>form.question8.documentationStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencySuppliesStatus</t>
+  </si>
+  <si>
+    <t>form.question8.highlyRecommendedItems</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyManagementComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordFilling</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.sampleCIFChecking</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.consentForms</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.meOverallComment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
   </si>
   <si>
     <t>form.section_c_-_demand_creation.activeMobilisers</t>
@@ -398,124 +419,847 @@
     <t>form.section_c_-_demand_creation.introductionDC</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.introductionDCResponseExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.contentRelevance</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.contentRelevanceExpl</t>
+    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
   </si>
   <si>
     <t>form.section_c_-_demand_creation.contentAccuracy</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.contentAccuracyExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipantsExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.abilitytoWindupSessionExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.consentFormsDC</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.consentFormsDCExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.sessionDurationDC</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.sessionDurationDCExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.workplanDC</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.workplanDCExpl</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
   </si>
   <si>
     <t>form.section_c_-_demand_creation.posters</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.postersDisplay</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.iecMaterial</t>
   </si>
   <si>
-    <t>form.section_c_-_demand_creation.iecMaterialonDisplayComment</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc15-24Str1</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc15-24Str2</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc15-24Str3</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc15-24Str4</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc25-34Str1</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc25-34Str2</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc25-34Str3</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.dc25-34Str4</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.demand_creation_-_strategies_by_age_bands.dcTargetPopulation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.demand_creation_-_strategies_by_age_bands.dcTargetPopulationComment</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.demand_creation_-_strategies_by_age_bands.dcCommunityCadres</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.demand_creation_-_strategies_by_age_bands.dcCommunityCadresComment</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_strategies_by_age_bands.demand_creation_-_strategies_by_age_bands.dcInnovation</t>
-  </si>
-  <si>
-    <t>form.tandem_reviews_-_client_verification.total_of_selected_cohort</t>
-  </si>
-  <si>
-    <t>form.tandem_reviews_-_client_verification.verification_methods.total_verified_by_physical_visits</t>
-  </si>
-  <si>
-    <t>form.tandem_reviews_-_client_verification.verification_methods.total_verified_by_peers__relatives</t>
-  </si>
-  <si>
-    <t>form.tandem_reviews_-_client_verification.verification_methods.total_verified_by_phone_calls</t>
+    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcComment</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulationComment</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulationComment</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadresComment</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRights</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRightFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.staffJobDescription</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.wasteDisposalSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.vmmcSurgicalManual</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.medicalEmergencySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeReviewMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeCareGuidelines</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeFollowUpProtocol</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeWrittenInstructions</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.cifAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.clientRegisterAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.saeReportingForm</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegisterClientCapturing</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.qualityImprovementMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralLinkageForms</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOPFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.pretestInformationRelevance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.spaceforPostTestingCounselling</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomInsertionModels</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomDemo</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postCouncellingCoverageonHTSLinkages</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsQualityAssurance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.internalControls</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsStaffRefresherTraining</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.dataCollectionToolsCurrentVersion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralTrackingStandards</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.stiRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.registerCompletion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailabilitySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.copy-1-of-adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.directObservationofCounselorsonCommunication</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.separtionofClientByAge</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.actualObservedSession</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsellingSpacePrivacyPreOp</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.appropriateGroupAssembling</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counselorAudible</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clearPresentationofInformation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsolorManagementofGroupDynamics</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.encouragementofQuestionsandClientParticipation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorChecksforUnderstanding</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorTreatmentofClients</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clientsAssuredofConfidentiality</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.easyObservationOfProps</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoMale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoFemale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
+  </si>
+  <si>
+    <t>form.question1.elicitationofClientAge</t>
+  </si>
+  <si>
+    <t>form.question1.contentTailoredByAge</t>
+  </si>
+  <si>
+    <t>form.question1.easyObservationofPropsInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientAssuredConfidentialityInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorChecksUnderstandingInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientTreatmentInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientsParticipationEncouragementInd</t>
+  </si>
+  <si>
+    <t>form.question1.informationClearInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorAudibleInd</t>
+  </si>
+  <si>
+    <t>form.question1.sessionNotInterruptedInd</t>
+  </si>
+  <si>
+    <t>form.question1.counsellingSpacePrivacyInd</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSRHIssues</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSocialCircumstances</t>
+  </si>
+  <si>
+    <t>form.question1.probingofMentalStatus</t>
+  </si>
+  <si>
+    <t>form.question1.reviewOfActualSession</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoInd</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoFemaleInd</t>
+  </si>
+  <si>
+    <t>form.question1.IndividualCounsellingComment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.communicationtoClients</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofHIVandAIDSriskReduction</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofBasicHIVfacts</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.mcPartialProtectiononHIV</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.condomUseExplanation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.sexAbstinenceVMMChealing</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.abstinenceRecommendations</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofMCMethods</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.htsandSTIServicesonVMMC</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.importanceofHTS</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.mcofHIVPosClients</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.accurateInformationProvided</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.InformationCommunicationComment</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofHIVandAIDSriskReductionInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofBasicHIVfactsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.mcPartialProtectiononHIVInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.condomUseExplanationInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.sexAbstinenceVMMChealingInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.abstinenceRecommendationsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofMCMethodsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.htsandSTIServicesonVMMCInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.importanceofHTSInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.mcofHIVPosClientsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.accurateInformationProvidedInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.IndividualInformationComment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.ageofClienthts</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsScrrenToolUsage</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientHIVRisk</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reviwedActualHIVCounsellingSession</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientConsentHIVCounselling</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.confedentiallityAssuredHTSCounseling</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reinforcementofHIVRisks</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.hivmisconceptionsAddressed</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsBenefitsandLimitations</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.partnerTesting</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsProcessExplained</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.informationPresentedClearly</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.accurateInformationProvided</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.understandingChecked</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.awareandAddressingClientNonVerbalCues</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientsTreatedwithRespect</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientdeclineHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientdeclineHIVTestedRespected</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientdeclineHIVTestedProbedReasons</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.benefitsofHIVStatusReinforced</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingatLaterDate</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Was_the_test_result_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Withheld_results_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Delivered_positive_results_directly_and_clearly</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Offered_client_appropriate_emotional_support</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Encourage_partner_and_family_HIV_testing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Communication_to_Clients</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_temperature_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_instructions_for_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Communicated_in_clear_simple_terms</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Gave_accurate_information_note_errors_of_fact</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Checked_for_client_understanding_throughout_session</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Engaged_client_with_respect_and_without_judgment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.IndividualInformationComment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Is_this_a_follow_up_clinic_visit_post_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.ageofClientfollowup</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reviewer_observed_follow-up_clinic_visit_on</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provider_ensured_client_privacy_during_examination</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Care_provider_completed_a_physical_exam</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.information_on_the_status_of_clients_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_effective_wound_care_and_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Discussed_warning_signs_of_adverse_events</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_procedures_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_termsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_sessionFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgmentFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_client_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_Register</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducation</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_test_result_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Withheld_results_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Delivered_positive_results_directly_and_clearly</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Offered_client_appropriate_emotional_support</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encourage_partner_and_family_HIV_testing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_instructions_for_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_terms</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information_note_errors_of_fact</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_session</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_clients_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_RegisterFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducationFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materialsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_materials_adequately_support_in-service_communication</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_are_legible_and_in_good-condition</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_tailored_to_specific_audiences_are_available</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_Information_on_Materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Guidance_for_reducing_individual_HIV_risk</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Information_on_need_for_abstinence_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Wound_care_instructions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warning_against_applying_any_home_or_tradional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Specific_contact_information_for_reaching_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emergency_contact_number_operational</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.give_overall_comment_communication</t>
   </si>
   <si>
     <t>form.totalMonths</t>
   </si>
   <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
     <t>form.ending_month_to_numeric</t>
   </si>
   <si>
-    <t>form.starting_month_to_numeric</t>
+    <t>completed_time</t>
+  </si>
+  <si>
+    <t>started_time</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>received_on</t>
+  </si>
+  <si>
+    <t>form_link</t>
+  </si>
+  <si>
+    <t>hq_user</t>
   </si>
   <si>
     <t>month_year_repeat_group</t>
@@ -1264,8 +2008,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,2470 +2364,3214 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FH5"/>
+  <dimension ref="A1:OV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="FF10" sqref="FF10"/>
+    <sheetView tabSelected="1" topLeftCell="OA1" workbookViewId="0">
+      <selection activeCell="OV1" sqref="OV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:164">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:412">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="OL1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="OM1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="ON1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="OO1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="OP1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="OQ1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="OR1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="OS1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="OT1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="OU1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="OV1" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="N2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Q2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="S2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="T2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="U2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="V2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="W2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="X2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Y2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Z2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AD2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AE2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AF2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AG2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AH2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AI2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AJ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AK2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AL2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AM2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AN2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AO2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AP2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AQ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AR2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AS2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AT2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AU2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AV2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AW2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AX2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AY2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AZ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BD2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BE2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BF2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BG2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BH2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BI2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BJ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BK2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BL2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BM2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BN2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BO2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BP2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BQ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BR2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BS2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BT2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BU2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BV2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BW2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BX2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BY2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BZ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CD2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CE2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CF2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CG2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CH2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CI2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CJ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CK2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CL2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CM2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CN2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CO2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CP2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CQ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CR2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CS2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CT2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CU2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CV2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CW2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CX2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CY2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CZ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DD2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DE2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DF2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DG2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DH2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DI2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DJ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DK2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DL2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DM2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DN2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DO2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DP2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DQ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DR2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DS2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DT2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DU2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DV2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DW2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DX2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DY2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DZ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ED2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EE2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EF2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EG2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EH2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EI2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EJ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EK2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EL2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EM2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EN2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EO2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EP2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EQ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ER2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ES2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ET2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EU2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EV2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EW2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EX2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EY2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EZ2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FA2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FB2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FC2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FD2" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FE2" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
       <c r="FF2" t="s">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="FG2" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>422</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="N3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="Q3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="S3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="T3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="V3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="W3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="X3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="Y3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="Z3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AA3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AC3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AD3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AE3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AF3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AG3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AH3" t="s">
-        <v>177</v>
+        <v>425</v>
       </c>
       <c r="AI3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AJ3" t="s">
-        <v>178</v>
+        <v>426</v>
       </c>
       <c r="AK3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AL3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AM3" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AN3" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AO3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AP3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AQ3" t="s">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="AR3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AS3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AT3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AU3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AV3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AW3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AX3" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AY3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="AZ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BA3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BB3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BC3" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="BD3" t="s">
-        <v>182</v>
+        <v>430</v>
       </c>
       <c r="BE3" t="s">
-        <v>183</v>
+        <v>431</v>
       </c>
       <c r="BF3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BG3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BH3" t="s">
-        <v>184</v>
+        <v>432</v>
       </c>
       <c r="BI3" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="BJ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BK3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BL3" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="BM3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BN3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BO3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BP3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BQ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BR3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BS3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BT3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BU3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BV3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BW3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BX3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BY3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="BZ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CA3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CB3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CC3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CD3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CE3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CF3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CG3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CH3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CI3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CJ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CK3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CL3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CM3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CN3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CO3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CP3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CQ3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CR3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CS3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CT3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CU3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CV3" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CW3" t="s">
-        <v>186</v>
+        <v>434</v>
       </c>
       <c r="CX3" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
       <c r="CY3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CZ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DA3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DB3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DC3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DD3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DE3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DF3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DG3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DH3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DI3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DJ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DK3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DL3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DM3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DN3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DO3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DP3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DQ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DR3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DS3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DT3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DU3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DV3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DW3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DX3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DY3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DZ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EA3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EB3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EC3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ED3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EE3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EF3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EG3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EH3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EI3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EJ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EK3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EL3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EM3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EN3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EO3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EP3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EQ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ER3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ES3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ET3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EU3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EV3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EW3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EX3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EY3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EZ3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FA3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FB3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FC3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FD3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FE3" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="FF3" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
       <c r="FG3" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>422</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="R4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="T4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="U4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="V4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="W4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="X4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Y4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Z4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AA4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AB4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AC4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AD4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AE4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AF4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AG4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AH4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AI4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AJ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AK4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AL4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AM4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AN4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AO4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AP4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AQ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AR4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AS4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AT4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AU4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AV4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AW4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AX4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AY4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AZ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BA4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BB4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BC4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BD4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BE4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BF4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BG4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BH4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BI4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BJ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BK4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BL4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BM4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BN4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BO4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BP4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BQ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BR4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BS4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BT4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BU4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BV4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BW4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BX4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BY4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BZ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CA4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CB4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CC4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CD4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CE4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CF4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CG4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CH4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CI4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CJ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CK4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CL4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CM4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CN4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CO4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CP4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CQ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CR4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CS4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CT4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CU4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CV4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CW4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CX4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CY4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="CZ4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DA4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DB4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DC4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DD4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DE4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DF4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DG4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DH4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DI4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DJ4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DK4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DL4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DM4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DN4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DO4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DP4" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DQ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DR4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DS4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DT4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DU4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DV4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DW4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DX4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DY4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DZ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EA4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EB4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EC4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ED4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EE4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EF4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EG4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EH4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EI4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EJ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EK4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EL4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EM4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EN4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EO4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EP4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EQ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ER4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ES4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="ET4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EU4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EV4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EW4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EX4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EY4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EZ4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FA4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FB4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FC4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FD4" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FE4" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="FF4" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
       <c r="FG4" t="s">
-        <v>194</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>422</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Q5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="R5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="S5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="T5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="U5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="W5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="X5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Y5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="Z5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AA5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AB5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AC5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AD5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AE5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AF5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AG5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AH5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AI5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AJ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AK5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AL5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AM5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AN5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AO5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AP5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AQ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AR5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AS5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AT5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AU5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AV5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AW5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AX5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AY5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="AZ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BA5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BB5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BC5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BD5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BE5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BF5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BG5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BH5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BI5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BJ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BK5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BL5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BM5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BN5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BO5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BP5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BQ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BR5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BS5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BT5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BU5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BV5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BW5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BX5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BY5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="BZ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CA5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CB5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CC5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CD5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CE5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CF5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CG5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CH5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CI5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CJ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CK5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CL5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CM5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CN5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CO5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CP5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CQ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CR5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CS5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CT5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CU5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CV5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CW5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CX5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CY5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="CZ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DA5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DB5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DC5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DD5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DE5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DF5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DG5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DH5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DI5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DJ5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DK5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DL5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DM5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DN5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DO5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DP5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="DQ5" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
       <c r="DR5" t="s">
-        <v>196</v>
+        <v>444</v>
       </c>
       <c r="DS5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DT5" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
       <c r="DU5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DV5" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="DW5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DX5" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
       <c r="DY5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="DZ5" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="EA5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EB5" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="EC5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="ED5" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="EE5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EF5" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="EG5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EH5" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="EI5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EJ5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EK5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="EL5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="EM5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EN5" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="EO5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EP5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EQ5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="ER5" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
       <c r="ES5" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="ET5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EU5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EV5" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="EW5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="EX5" t="s">
-        <v>206</v>
+        <v>454</v>
       </c>
       <c r="EY5" t="s">
-        <v>207</v>
+        <v>455</v>
       </c>
       <c r="EZ5" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
       <c r="FA5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FB5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FC5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FD5" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="FE5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="FF5" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
       <c r="FG5" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="458">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1263,6 +1263,9 @@
   </si>
   <si>
     <t>month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>activityType</t>
   </si>
   <si>
     <t>---</t>
@@ -2072,13 +2075,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2364,15 +2360,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:OV5"/>
+  <dimension ref="A1:OX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="OA1" workbookViewId="0">
-      <selection activeCell="OV1" sqref="OV1"/>
+    <sheetView tabSelected="1" topLeftCell="OC1" workbookViewId="0">
+      <selection activeCell="OX1" sqref="OX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:412">
+    <row r="1" s="1" customFormat="1" spans="1:414">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3608,1970 +3604,1973 @@
       </c>
       <c r="OV1" s="1" t="s">
         <v>411</v>
+      </c>
+      <c r="OX1" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" t="s">
-        <v>414</v>
-      </c>
       <c r="F2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AQ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AU2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AV2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AX2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AY2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BD2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BE2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BF2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BG2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BJ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BK2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BL2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BM2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BN2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BO2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BP2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BQ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BR2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BS2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BT2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BU2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BV2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BW2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BX2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BY2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BZ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CD2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CE2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CF2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CJ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CK2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CL2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CM2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CN2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CO2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CP2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CQ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CR2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CS2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CT2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CU2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CV2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CW2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CX2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CY2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CZ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DD2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DE2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DF2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DG2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DJ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DK2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DL2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DM2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DN2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DO2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DP2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DQ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DR2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DS2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DT2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DU2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DV2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DW2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DX2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DY2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DZ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ED2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EE2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EF2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EG2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EJ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EK2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EL2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EM2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EN2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EO2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EP2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EQ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ER2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ES2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ET2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EU2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EV2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EW2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EX2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EY2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EZ2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FA2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FB2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FC2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FD2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FE2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="FF2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="FG2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="W3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AB3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AE3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AI3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AK3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX3" t="s">
         <v>428</v>
       </c>
-      <c r="AR3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>427</v>
-      </c>
       <c r="AY3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AZ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BA3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BB3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BC3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BD3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BE3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BF3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BG3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BH3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BI3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BJ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BK3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BL3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BM3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BN3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BO3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BP3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BQ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BR3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BS3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BT3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BU3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BV3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BW3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BX3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BY3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BZ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CA3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CB3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CC3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CD3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CE3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CF3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CG3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CH3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CI3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CJ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CK3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CL3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CM3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CN3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CO3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CP3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CQ3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CR3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CS3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CT3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CU3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CV3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CW3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="CX3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="CY3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CZ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DA3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DB3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DC3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DD3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DE3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DF3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DG3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DH3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DI3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DJ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DK3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DL3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DM3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DN3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DO3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DP3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DQ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DR3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DS3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DT3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DU3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DV3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DW3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DX3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DY3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DZ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EA3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EB3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EC3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ED3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EE3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EF3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EG3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EH3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EI3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EJ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EK3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EL3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EM3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EN3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EO3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EP3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EQ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ER3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ES3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ET3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EU3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EV3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EW3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EX3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EY3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EZ3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FA3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FB3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FC3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FD3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FE3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="FF3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="FG3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AQ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AU4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AV4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AX4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AY4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BB4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BC4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BD4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BE4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BF4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BG4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BH4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BI4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BJ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BK4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BL4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BM4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BN4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BO4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BP4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BQ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BR4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BS4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BT4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BU4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BV4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BW4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BX4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BY4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BZ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CA4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CB4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CC4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CD4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CE4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CF4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CH4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CI4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CJ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CK4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CL4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CM4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CN4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CO4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CP4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CQ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CR4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CS4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CT4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CU4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CV4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CW4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CX4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CY4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="CZ4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DA4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DB4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DC4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DD4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DE4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DF4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DG4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DH4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DI4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DJ4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DK4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DL4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DM4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DN4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DO4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DP4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DQ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DR4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DS4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DT4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DU4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DV4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DW4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DX4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DY4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DZ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EA4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EB4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EC4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ED4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EE4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EF4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EG4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EH4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EI4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EJ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EK4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EL4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EM4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EN4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EO4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EP4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EQ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ER4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ES4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="ET4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EU4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EV4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EW4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EX4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EY4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EZ4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FA4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FB4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FC4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FD4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FE4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="FF4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="FG4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AQ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AU5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AV5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AX5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AY5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BB5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BC5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BD5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BE5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BF5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BG5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BH5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BI5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BJ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BK5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BL5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BM5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BN5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BO5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BP5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BQ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BR5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BS5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BT5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BU5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BV5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BW5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BX5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BY5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BZ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CA5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CB5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CC5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CD5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CE5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CF5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CG5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CH5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CI5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CJ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CK5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CL5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CM5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CN5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CO5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CP5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CQ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CR5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CS5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CT5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CU5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CV5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CW5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CX5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CY5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CZ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DA5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DB5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DC5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DD5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DE5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DF5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DG5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DH5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DI5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DJ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DK5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DL5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DM5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DN5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DO5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DP5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DQ5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="DR5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DS5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DT5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DU5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DV5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DW5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DX5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DY5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DZ5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="EA5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EB5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="EC5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="ED5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="EE5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EF5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="EG5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EH5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="EI5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EJ5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EK5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EL5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="EM5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EN5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="EO5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EP5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EQ5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="ER5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="ES5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="ET5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EU5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EV5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="EW5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EX5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="EY5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EZ5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="FA5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FB5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FC5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FD5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FE5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="FF5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="FG5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="488">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1266,6 +1266,96 @@
   </si>
   <si>
     <t>activityType</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.consentForms</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.copy-1-of-recordsFilling</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.question1</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.recordsFilling</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.vmmcMinutes</t>
+  </si>
+  <si>
+    <t>form.sectionB.are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
+  </si>
+  <si>
+    <t>form.sectionB.bins</t>
+  </si>
+  <si>
+    <t>form.sectionB.copy-1-of-infection_prevention_control_ipc_and_emergency_management</t>
+  </si>
+  <si>
+    <t>form.sectionB.darkClerk</t>
+  </si>
+  <si>
+    <t>form.sectionB.dcWorkPlan</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyNumber</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyTraining</t>
+  </si>
+  <si>
+    <t>form.sectionB.facility_and_supplies</t>
+  </si>
+  <si>
+    <t>form.sectionB.incinerator</t>
+  </si>
+  <si>
+    <t>form.sectionB.infection_prevention_control_ipc_and_emergency_management</t>
+  </si>
+  <si>
+    <t>form.sectionB.operatingTheatrePrivacy</t>
+  </si>
+  <si>
+    <t>form.sectionB.rbfFacilityPlan</t>
+  </si>
+  <si>
+    <t>form.sectionB.runningWater</t>
+  </si>
+  <si>
+    <t>form.sectionB.sterileKitsStorage</t>
+  </si>
+  <si>
+    <t>form.sectionB.vmmcGuidelines</t>
+  </si>
+  <si>
+    <t>form.sectionB.vmmcPosters</t>
+  </si>
+  <si>
+    <t>form.sectionA.certifiedCircumciser</t>
+  </si>
+  <si>
+    <t>form.sectionA.communityHealthNurses</t>
+  </si>
+  <si>
+    <t>form.sectionA.darkClerk</t>
+  </si>
+  <si>
+    <t>form.sectionA.is_there_a_trained_vmmc_assistant</t>
+  </si>
+  <si>
+    <t>form.sectionA.sectionAComment</t>
+  </si>
+  <si>
+    <t>form.sectionA.staffingCapabilities</t>
+  </si>
+  <si>
+    <t>form.sectionA.vmmcMobilisers</t>
   </si>
   <si>
     <t>---</t>
@@ -1413,8 +1503,16 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1759,12 +1857,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1883,14 +1996,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1899,121 +2009,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,15 +2476,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:OX5"/>
+  <dimension ref="A1:QB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="OC1" workbookViewId="0">
-      <selection activeCell="OX1" sqref="OX1"/>
+    <sheetView tabSelected="1" topLeftCell="OL1" workbookViewId="0">
+      <selection activeCell="OW7" sqref="OW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:414">
+    <row r="1" s="1" customFormat="1" spans="1:444">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3607,1970 +3723,2060 @@
       </c>
       <c r="OX1" s="1" t="s">
         <v>412</v>
+      </c>
+      <c r="OY1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="OZ1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="PA1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="PB1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="PC1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="PD1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="PE1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="PF1" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="PG1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="PH1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="PI1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="PJ1" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="PK1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="PL1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="PM1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="PN1" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="PO1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="PP1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="PQ1" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="PR1" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="PS1" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="PT1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="PU1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="PV1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="PW1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="PX1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="PY1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="PZ1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="QA1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="QB1" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="G2" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="I2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="K2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="L2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="M2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="N2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="P2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Q2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="R2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="S2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="T2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="U2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="V2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="W2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="X2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Y2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Z2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AD2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AE2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AF2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AG2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AH2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AI2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AJ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AK2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AL2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AM2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AN2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AO2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AP2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AQ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AR2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AS2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AT2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AU2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AV2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AW2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AX2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AY2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AZ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BD2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BE2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BF2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BG2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BH2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BI2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BJ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BK2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BL2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BM2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BN2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BO2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BP2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BQ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BR2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BS2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BT2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BU2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BV2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BW2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BX2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BY2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BZ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CD2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CE2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CF2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CG2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CH2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CI2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CJ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CK2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CL2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CM2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CN2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CO2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CP2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CQ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CR2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CS2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CT2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CU2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CV2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CW2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CX2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CY2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CZ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DD2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DE2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DF2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DG2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DH2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DI2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DJ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DK2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DL2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DM2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DN2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DO2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DP2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DQ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DR2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DS2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DT2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DU2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DV2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DW2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DX2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DY2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DZ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ED2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EE2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EF2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EG2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EH2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EI2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EJ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EK2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EL2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EM2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EN2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EO2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EP2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EQ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ER2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ES2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ET2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EU2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EV2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EW2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EX2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EY2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EZ2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FA2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FB2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FC2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FD2" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FE2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="FF2" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="FG2" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="I3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="J3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="L3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="M3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="N3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="O3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="P3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="Q3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="R3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="S3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="T3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="U3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="V3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="W3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="X3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="Y3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="Z3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AA3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AB3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AC3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AD3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AE3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AF3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AG3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AH3" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="AI3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AJ3" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AK3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AL3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AM3" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AN3" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AO3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AP3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AQ3" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="AR3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AS3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AT3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AU3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AV3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AW3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AX3" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AY3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AZ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BA3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BB3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BC3" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="BD3" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="BE3" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="BF3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BG3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BH3" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="BI3" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="BJ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BK3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BL3" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="BM3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BN3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BO3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BP3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BQ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BR3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BS3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BT3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BU3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BV3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BW3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BX3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BY3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="BZ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CA3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CB3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CC3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CD3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CE3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CF3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CG3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CH3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CI3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CJ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CK3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CL3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CM3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CN3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CO3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CP3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CQ3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CR3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CS3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CT3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CU3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CV3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CW3" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="CX3" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="CY3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CZ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DA3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DB3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DC3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DD3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DE3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DF3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DG3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DH3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DI3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DJ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DK3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DL3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DM3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DN3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DO3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DP3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DQ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DR3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DS3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DT3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DU3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DV3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DW3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DX3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DY3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DZ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EA3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EB3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EC3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ED3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EE3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EF3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EG3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EH3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EI3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EJ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EK3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EL3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EM3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EN3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EO3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EP3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EQ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ER3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ES3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ET3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EU3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EV3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EW3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EX3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EY3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EZ3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FA3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FB3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FC3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FD3" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FE3" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="FF3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="FG3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G4" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="I4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="L4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="M4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="N4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="O4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="P4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Q4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="R4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="S4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="T4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="U4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="V4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="W4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="X4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Y4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Z4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AA4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AB4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AC4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AD4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AE4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AF4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AG4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AH4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AI4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AJ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AK4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AL4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AM4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AN4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AO4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AP4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AQ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AR4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AS4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AT4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AU4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AV4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AW4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AX4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AY4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AZ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BA4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BB4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BC4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BD4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BE4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BF4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BG4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BH4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BI4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BJ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BK4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BL4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BM4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BN4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BO4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BP4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BQ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BR4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BS4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BT4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BU4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BV4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BW4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BX4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BY4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BZ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CA4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CB4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CC4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CD4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CE4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CF4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CG4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CH4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CI4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CJ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CK4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CL4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CM4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CN4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CO4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CP4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CQ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CR4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CS4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CT4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CU4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CV4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CW4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CX4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CY4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="CZ4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DA4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DB4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DC4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DD4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DE4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DF4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DG4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DH4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DI4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DJ4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DK4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DL4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DM4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DN4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DO4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DP4" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DQ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DR4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DS4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DT4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DU4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DV4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DW4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DX4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DY4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DZ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EA4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EB4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EC4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ED4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EE4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EF4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EG4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EH4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EI4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EJ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EK4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EL4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EM4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EN4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EO4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EP4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EQ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ER4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ES4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="ET4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EU4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EV4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EW4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EX4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EY4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EZ4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FA4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FB4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FC4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FD4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FE4" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="FF4" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="FG4" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G5" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="I5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="K5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="L5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="M5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="N5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="O5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="P5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Q5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="R5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="S5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="T5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="U5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="V5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="W5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="X5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Y5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="Z5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AA5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AB5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AC5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AD5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AE5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AF5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AG5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AH5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AI5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AJ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AK5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AL5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AM5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AN5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AO5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AP5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AQ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AR5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AS5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AT5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AU5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AV5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AW5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AX5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AY5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="AZ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BA5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BB5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BC5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BD5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BE5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BF5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BG5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BH5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BI5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BJ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BK5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BL5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BM5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BN5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BO5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BP5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BQ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BR5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BS5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BT5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BU5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BV5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BW5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BX5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BY5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="BZ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CA5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CB5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CC5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CD5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CE5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CF5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CG5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CH5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CI5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CJ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CK5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CL5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CM5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CN5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CO5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CP5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CQ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CR5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CS5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CT5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CU5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CV5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CW5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CX5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CY5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="CZ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DA5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DB5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DC5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DD5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DE5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DF5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DG5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DH5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DI5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DJ5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DK5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DL5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DM5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DN5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DO5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DP5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="DQ5" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="DR5" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="DS5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DT5" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="DU5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DV5" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="DW5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DX5" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="DY5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="DZ5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="EA5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EB5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="EC5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="ED5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="EE5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EF5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="EG5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EH5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="EI5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EJ5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EK5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="EL5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="EM5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EN5" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="EO5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EP5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EQ5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="ER5" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="ES5" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="ET5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EU5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EV5" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="EW5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="EX5" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="EY5" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="EZ5" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="FA5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FB5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FC5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FD5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="FE5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="FF5" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="FG5" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="489">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1268,94 +1268,97 @@
     <t>activityType</t>
   </si>
   <si>
+    <t>form.field_activity_type.section</t>
+  </si>
+  <si>
+    <t>form.sectionA.certifiedCircumciser</t>
+  </si>
+  <si>
+    <t>form.sectionA.is_there_a_trained_vmmc_assistant</t>
+  </si>
+  <si>
+    <t>form.sectionA.darkClerk</t>
+  </si>
+  <si>
+    <t>form.sectionA.staffingCapabilities</t>
+  </si>
+  <si>
+    <t>form.sectionA.communityHealthNurses</t>
+  </si>
+  <si>
+    <t>form.sectionA.vmmcMobilisers</t>
+  </si>
+  <si>
+    <t>form.sectionA.sectionAComment</t>
+  </si>
+  <si>
+    <t>form.sectionB.vmmcPosters</t>
+  </si>
+  <si>
+    <t>form.sectionB.vmmcGuidelines</t>
+  </si>
+  <si>
+    <t>form.sectionB.darkClerk</t>
+  </si>
+  <si>
+    <t>form.sectionB.operatingTheatrePrivacy</t>
+  </si>
+  <si>
+    <t>form.sectionB.runningWater</t>
+  </si>
+  <si>
+    <t>form.sectionB.sterileKitsStorage</t>
+  </si>
+  <si>
+    <t>form.sectionB.bins</t>
+  </si>
+  <si>
+    <t>form.sectionB.incinerator</t>
+  </si>
+  <si>
+    <t>form.sectionB.rbfFacilityPlan</t>
+  </si>
+  <si>
+    <t>form.sectionB.dcWorkPlan</t>
+  </si>
+  <si>
+    <t>form.sectionB.are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyTraining</t>
+  </si>
+  <si>
+    <t>form.sectionB.emergencyNumber</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.recordsFilling</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.copy-1-of-recordsFilling</t>
+  </si>
+  <si>
     <t>form.copy-1-of-section_c.consentForms</t>
   </si>
   <si>
-    <t>form.copy-1-of-section_c.copy-1-of-recordsFilling</t>
-  </si>
-  <si>
     <t>form.copy-1-of-section_c.question1</t>
   </si>
   <si>
-    <t>form.copy-1-of-section_c.recordsFilling</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-section_c.recordsSecure</t>
-  </si>
-  <si>
     <t>form.copy-1-of-section_c.vmmcMinutes</t>
   </si>
   <si>
-    <t>form.sectionB.are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
-  </si>
-  <si>
-    <t>form.sectionB.bins</t>
-  </si>
-  <si>
-    <t>form.sectionB.copy-1-of-infection_prevention_control_ipc_and_emergency_management</t>
-  </si>
-  <si>
-    <t>form.sectionB.darkClerk</t>
-  </si>
-  <si>
-    <t>form.sectionB.dcWorkPlan</t>
-  </si>
-  <si>
-    <t>form.sectionB.emergencyCart</t>
-  </si>
-  <si>
-    <t>form.sectionB.emergencyNumber</t>
-  </si>
-  <si>
-    <t>form.sectionB.emergencyTraining</t>
-  </si>
-  <si>
-    <t>form.sectionB.facility_and_supplies</t>
-  </si>
-  <si>
-    <t>form.sectionB.incinerator</t>
-  </si>
-  <si>
-    <t>form.sectionB.infection_prevention_control_ipc_and_emergency_management</t>
-  </si>
-  <si>
-    <t>form.sectionB.operatingTheatrePrivacy</t>
-  </si>
-  <si>
-    <t>form.sectionB.rbfFacilityPlan</t>
-  </si>
-  <si>
-    <t>form.sectionB.runningWater</t>
-  </si>
-  <si>
-    <t>form.sectionB.sterileKitsStorage</t>
-  </si>
-  <si>
-    <t>form.sectionB.vmmcGuidelines</t>
-  </si>
-  <si>
-    <t>form.sectionB.vmmcPosters</t>
-  </si>
-  <si>
-    <t>form.sectionA.certifiedCircumciser</t>
-  </si>
-  <si>
-    <t>form.sectionA.communityHealthNurses</t>
-  </si>
-  <si>
-    <t>form.sectionA.darkClerk</t>
-  </si>
-  <si>
-    <t>form.sectionA.is_there_a_trained_vmmc_assistant</t>
-  </si>
-  <si>
-    <t>form.sectionA.sectionAComment</t>
-  </si>
-  <si>
-    <t>form.sectionA.staffingCapabilities</t>
-  </si>
-  <si>
-    <t>form.sectionA.vmmcMobilisers</t>
+    <t>form.activityType</t>
+  </si>
+  <si>
+    <t>form.submissionMonth</t>
+  </si>
+  <si>
+    <t>form.submissionYear</t>
   </si>
   <si>
     <t>---</t>
@@ -1512,7 +1515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1857,27 +1859,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2000,7 +1987,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2012,34 +1999,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2127,9 +2114,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2476,15 +2461,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QB5"/>
+  <dimension ref="A1:QF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="OL1" workbookViewId="0">
-      <selection activeCell="OW7" sqref="OW7"/>
+    <sheetView tabSelected="1" topLeftCell="PT1" workbookViewId="0">
+      <selection activeCell="QF1" sqref="QF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:444">
+    <row r="1" s="1" customFormat="1" spans="1:448">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3812,1971 +3797,1983 @@
         <v>441</v>
       </c>
       <c r="QB1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="QC1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="QD1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="QE1" s="1" t="s">
         <v>442</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
         <v>446</v>
       </c>
-      <c r="E2" t="s">
-        <v>445</v>
-      </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AD2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AQ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AR2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AT2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AU2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AV2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AW2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AX2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AY2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AZ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BD2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BE2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BF2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BG2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BI2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BJ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BK2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BL2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BM2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BO2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BP2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BQ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BR2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BS2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BT2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BU2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BV2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BW2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BX2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BY2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BZ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CD2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CE2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CF2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CG2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CI2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CJ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CK2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CL2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CM2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CO2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CP2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CQ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CR2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CS2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CT2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CU2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CV2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CW2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CX2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CY2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CZ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DD2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DE2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DF2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DG2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DI2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DJ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DK2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DL2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DM2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DO2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DP2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DQ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DR2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DS2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DT2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DU2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DV2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DW2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DX2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DY2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DZ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ED2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EE2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EF2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EG2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EH2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EI2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EJ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EK2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EL2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EM2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EO2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EP2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EQ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ER2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ES2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ET2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EU2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EV2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EW2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EX2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EY2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EZ2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FA2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FB2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FC2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FD2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FE2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="FF2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="FG2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="X3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AB3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AC3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AD3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AE3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AI3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AP3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AQ3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX3" t="s">
         <v>459</v>
       </c>
-      <c r="AR3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>458</v>
-      </c>
       <c r="AY3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AZ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BA3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BB3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BC3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="BD3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="BE3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BF3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BG3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BH3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BI3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BJ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BK3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BL3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BM3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BN3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BO3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BP3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BQ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BR3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BS3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BT3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BU3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BV3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BW3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BX3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BY3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BZ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CA3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CB3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CC3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CD3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CE3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CF3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CG3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CH3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CI3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CJ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CK3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CL3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CM3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CN3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CO3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CP3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CQ3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CR3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CS3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CT3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CU3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CV3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CW3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CX3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CY3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CZ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DA3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DB3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DC3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DD3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DE3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DF3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DG3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DH3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DI3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DJ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DK3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DL3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DM3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DN3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DO3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DP3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DQ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DR3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DS3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DT3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DU3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DV3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DW3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DX3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DY3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DZ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EA3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EB3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EC3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ED3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EE3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EF3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EG3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EH3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EI3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EJ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EK3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EL3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EM3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EN3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EO3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EP3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EQ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ER3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ES3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ET3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EU3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EV3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EW3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EX3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EY3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EZ3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FA3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FB3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FC3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FD3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FE3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="FF3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="FG3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AD4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AH4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AQ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AR4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AT4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AU4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AV4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AW4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AX4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AY4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AZ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BA4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BC4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BD4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BE4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BF4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BG4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BI4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BJ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BK4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BL4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BM4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BN4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BO4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BP4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BQ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BR4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BS4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BT4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BU4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BV4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BW4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BX4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BY4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BZ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CA4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CC4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CD4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CE4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CF4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CG4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CH4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CI4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CJ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CK4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CL4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CM4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CN4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CO4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CP4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CQ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CR4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CS4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CT4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CU4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CV4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CW4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CX4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CY4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="CZ4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DA4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DB4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DC4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DD4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DE4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DF4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DG4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DH4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DI4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DJ4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DK4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DL4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DM4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DN4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DO4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DP4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DQ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DR4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DS4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DT4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DU4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DV4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DW4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DX4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DY4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DZ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EA4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EC4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ED4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EE4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EF4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EG4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EH4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EI4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EJ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EK4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EL4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EM4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EN4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EO4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EP4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EQ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ER4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ES4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="ET4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EU4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EV4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EW4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EX4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EY4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EZ4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FA4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FC4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FD4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FE4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="FF4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="FG4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AD5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AE5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AH5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AQ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AR5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AT5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AU5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AV5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AW5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AX5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AY5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AZ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BA5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BB5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BC5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BD5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BE5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BF5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BG5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BI5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BJ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BK5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BL5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BM5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BN5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BO5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BP5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BQ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BR5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BS5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BT5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BU5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BV5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BW5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BX5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BY5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BZ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CA5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CB5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CC5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CD5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CE5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CF5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CG5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CH5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CI5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CJ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CK5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CL5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CM5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CN5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CO5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CP5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CQ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CR5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CS5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CT5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CU5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CV5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CW5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CX5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CY5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CZ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DA5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DB5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DC5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DD5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DE5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DF5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DG5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DH5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DI5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DJ5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DK5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DL5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DM5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DN5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DO5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DP5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DQ5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="DR5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DS5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DT5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="DU5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DV5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="DW5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DX5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DY5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DZ5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="EA5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EB5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="EC5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="ED5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="EE5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EF5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="EG5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EH5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="EI5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EJ5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EK5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="EL5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EM5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EN5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EO5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EP5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EQ5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="ER5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="ES5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="ET5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EU5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EV5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="EW5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="EX5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="EY5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="EZ5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="FA5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FB5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FC5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FD5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FE5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="FF5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="FG5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="490">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1359,6 +1359,9 @@
   </si>
   <si>
     <t>form.submissionYear</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-section_c.recordReviewComment</t>
   </si>
   <si>
     <t>---</t>
@@ -1515,6 +1518,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1859,12 +1863,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1987,7 +2006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,34 +2018,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2114,7 +2133,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2461,15 +2482,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QF5"/>
+  <dimension ref="A1:QG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="PT1" workbookViewId="0">
-      <selection activeCell="QF1" sqref="QF1"/>
+    <sheetView tabSelected="1" topLeftCell="PL1" workbookViewId="0">
+      <selection activeCell="QC10" sqref="QC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:448">
+    <row r="1" s="1" customFormat="1" spans="1:449">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3709,100 +3730,100 @@
       <c r="OX1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="OY1" s="2" t="s">
+      <c r="OY1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="OZ1" s="2" t="s">
+      <c r="OZ1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="PA1" s="2" t="s">
+      <c r="PA1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="PB1" s="2" t="s">
+      <c r="PB1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="PC1" s="2" t="s">
+      <c r="PC1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="PD1" s="2" t="s">
+      <c r="PD1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="PE1" s="2" t="s">
+      <c r="PE1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="PF1" s="2" t="s">
+      <c r="PF1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="PG1" s="2" t="s">
+      <c r="PG1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="PH1" s="2" t="s">
+      <c r="PH1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="PI1" s="2" t="s">
+      <c r="PI1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="PJ1" s="2" t="s">
+      <c r="PJ1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="PK1" s="2" t="s">
+      <c r="PK1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="PL1" s="2" t="s">
+      <c r="PL1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="PM1" s="2" t="s">
+      <c r="PM1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="PN1" s="2" t="s">
+      <c r="PN1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="PO1" s="2" t="s">
+      <c r="PO1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="PP1" s="2" t="s">
+      <c r="PP1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="PQ1" s="2" t="s">
+      <c r="PQ1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="PR1" s="2" t="s">
+      <c r="PR1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="PS1" s="2" t="s">
+      <c r="PS1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="PT1" s="2" t="s">
+      <c r="PT1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="PU1" s="2" t="s">
+      <c r="PU1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="PV1" s="2" t="s">
+      <c r="PV1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="PW1" s="2" t="s">
+      <c r="PW1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="PX1" s="2" t="s">
+      <c r="PX1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="PY1" s="2" t="s">
+      <c r="PY1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="PZ1" s="2" t="s">
+      <c r="PZ1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="QA1" s="2" t="s">
+      <c r="QA1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="QB1" s="2" t="s">
+      <c r="QB1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="QC1" s="2" t="s">
+      <c r="QC1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="QD1" s="2" t="s">
+      <c r="QD1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="QE1" s="1" t="s">
@@ -3810,1970 +3831,1973 @@
       </c>
       <c r="QF1" s="1" t="s">
         <v>443</v>
+      </c>
+      <c r="QG1" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
         <v>447</v>
       </c>
-      <c r="E2" t="s">
-        <v>446</v>
-      </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AE2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AQ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AR2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AS2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AU2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AV2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AW2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AX2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AY2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AZ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BD2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BE2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BF2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BG2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BI2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BJ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BK2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BL2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BM2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BN2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BP2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BQ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BR2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BS2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BT2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BU2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BV2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BW2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BX2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BY2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BZ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CD2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CE2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CF2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CG2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CH2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CI2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CJ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CK2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CL2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CM2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CN2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CP2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CQ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CR2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CS2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CT2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CU2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CV2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CW2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CX2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CY2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CZ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DD2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DE2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DF2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DG2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DH2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DI2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DJ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DK2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DL2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DM2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DN2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DP2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DQ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DR2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DS2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DT2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DU2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DV2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DW2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DX2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DY2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DZ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ED2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EE2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EF2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EG2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EH2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EI2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EJ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EK2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EL2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EM2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EN2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EP2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EQ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ER2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ES2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ET2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EU2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EV2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EW2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EX2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EY2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EZ2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FA2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FB2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FC2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FD2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FE2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="FF2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="FG2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="U3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="X3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AC3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AP3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AQ3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AX3" t="s">
         <v>460</v>
       </c>
-      <c r="AR3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>459</v>
-      </c>
       <c r="AY3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AZ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BA3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BB3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BC3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="BD3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BE3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BF3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BG3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BH3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BI3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BJ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BK3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BL3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BM3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BN3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BO3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BP3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BQ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BR3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BS3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BT3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BU3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BV3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BW3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BX3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BY3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BZ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CA3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CB3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CC3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CD3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CE3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CF3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CG3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CH3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CI3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CJ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CK3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CL3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CM3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CN3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CO3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CP3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CQ3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CR3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CS3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CT3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CU3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CV3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CW3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CX3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CY3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CZ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DA3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DB3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DC3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DD3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DE3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DF3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DG3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DH3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DI3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DJ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DK3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DL3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DM3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DN3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DO3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DP3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DQ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DR3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DS3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DT3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DU3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DV3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DW3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DX3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DY3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DZ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EA3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EB3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EC3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ED3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EE3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EF3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EG3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EH3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EI3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EJ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EK3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EL3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EM3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EN3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EO3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EP3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EQ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ER3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ES3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ET3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EU3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EV3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EW3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EX3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EY3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EZ3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FA3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FB3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FC3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FD3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FE3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="FF3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="FG3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AE4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AQ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AR4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AS4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AU4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AV4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AW4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AX4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AY4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AZ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BA4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BB4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BC4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BD4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BE4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BF4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BG4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BI4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BJ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BK4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BL4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BM4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BN4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BO4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BP4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BQ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BR4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BS4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BT4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BU4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BV4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BW4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BX4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BY4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BZ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CA4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CB4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CC4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CD4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CE4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CF4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CG4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CH4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CI4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CJ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CK4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CL4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CM4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CN4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CO4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CP4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CQ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CR4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CS4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CT4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CU4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CV4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CW4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CX4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CY4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CZ4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DA4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DB4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DC4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DD4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DE4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DF4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DG4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DH4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DI4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DJ4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DK4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DL4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DM4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DN4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DO4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DP4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DQ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DR4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DS4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DT4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DU4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DV4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DW4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DX4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DY4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DZ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EA4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EB4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EC4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ED4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EE4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EF4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EG4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EH4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EI4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EJ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EK4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EL4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EM4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EN4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EO4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EP4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EQ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ER4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ES4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="ET4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EU4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EV4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EW4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EX4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EY4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EZ4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FA4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FB4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FC4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FD4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FE4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="FF4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="FG4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AE5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AQ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AR5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AS5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AU5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AV5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AW5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AX5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AY5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AZ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BA5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BC5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BD5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BE5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BF5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BG5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BI5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BJ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BK5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BL5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BM5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BN5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BO5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BP5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BQ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BR5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BS5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BT5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BU5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BV5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BW5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BX5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BY5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BZ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CA5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CC5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CD5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CE5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CF5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CG5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CH5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CI5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CJ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CK5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CL5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CM5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CN5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CO5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CP5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CQ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CR5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CS5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CT5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CU5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CV5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CW5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CX5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CY5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CZ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DA5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DC5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DD5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DE5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DF5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DG5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DH5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DI5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DJ5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DK5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DL5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DM5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DN5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DO5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DP5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="DQ5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="DS5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DT5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="DU5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DV5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DW5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DX5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DY5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DZ5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="EA5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EB5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="EC5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="ED5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EE5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EF5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EG5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EH5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EI5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EJ5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EK5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="EL5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EN5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EO5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EP5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EQ5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="ER5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="ES5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="ET5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EU5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EV5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="EW5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="EX5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="EY5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="EZ5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="FA5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FC5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FD5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FE5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="FF5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="FG5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="491">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1362,6 +1362,9 @@
   </si>
   <si>
     <t>form.copy-1-of-section_c.recordReviewComment</t>
+  </si>
+  <si>
+    <t>staffingComment</t>
   </si>
   <si>
     <t>---</t>
@@ -1509,7 +1512,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1527,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1C2126"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2002,14 +2011,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2018,124 +2024,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2482,15 +2492,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QG5"/>
+  <dimension ref="A1:QH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="PL1" workbookViewId="0">
-      <selection activeCell="QC10" sqref="QC10"/>
+    <sheetView tabSelected="1" topLeftCell="PN1" workbookViewId="0">
+      <selection activeCell="QC6" sqref="QC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:449">
+    <row r="1" s="1" customFormat="1" spans="1:450">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,1970 +3844,1973 @@
       </c>
       <c r="QG1" s="2" t="s">
         <v>444</v>
+      </c>
+      <c r="QH1" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" t="s">
         <v>448</v>
       </c>
-      <c r="E2" t="s">
-        <v>447</v>
-      </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AE2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AQ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AR2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AS2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AU2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AV2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AW2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AX2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AY2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AZ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BD2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BE2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BF2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BG2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BI2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BJ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BK2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BL2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BM2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BN2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BO2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BQ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BR2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BS2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BT2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BU2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BV2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BW2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BX2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BY2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BZ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CD2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CE2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CF2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CG2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CH2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CI2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CJ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CK2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CL2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CM2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CN2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CO2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CQ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CR2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CS2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CT2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CU2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CV2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CW2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CX2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CY2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CZ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DD2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DE2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DF2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DG2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DH2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DI2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DJ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DK2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DL2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DM2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DN2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DO2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DQ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DR2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DS2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DT2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DU2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DV2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DW2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DX2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DY2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DZ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ED2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EE2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EF2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EG2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EH2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EI2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EJ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EK2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EL2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EM2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EN2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EO2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EQ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ER2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ES2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ET2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EU2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EV2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EW2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EX2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EY2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EZ2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FA2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FB2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FC2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FD2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FE2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="FF2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="FG2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AB3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AE3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AQ3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX3" t="s">
         <v>461</v>
       </c>
-      <c r="AR3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>460</v>
-      </c>
       <c r="AY3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AZ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BA3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BB3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BC3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BD3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BE3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BF3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BG3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BH3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BI3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BJ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BK3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BL3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="BM3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BN3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BO3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BP3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BQ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BR3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BS3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BT3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BU3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BV3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BW3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BX3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BY3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BZ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CA3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CB3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CC3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CD3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CE3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CF3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CG3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CH3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CI3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CJ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CK3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CL3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CM3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CN3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CO3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CP3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CQ3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CR3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CS3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CT3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CU3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CV3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CW3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CX3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CY3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CZ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DA3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DB3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DC3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DD3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DE3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DF3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DG3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DH3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DI3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DJ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DK3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DL3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DM3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DN3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DO3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DP3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DQ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DR3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DS3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DT3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DU3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DV3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DW3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DX3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DY3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DZ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EA3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EB3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EC3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ED3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EE3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EF3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EG3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EH3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EI3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EJ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EK3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EL3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EM3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EN3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EO3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EP3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EQ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ER3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ES3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ET3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EU3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EV3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EW3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EX3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EY3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EZ3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FA3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FB3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FC3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FD3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FE3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="FF3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="FG3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AE4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AQ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AR4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AS4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AU4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AV4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AW4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AX4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AY4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AZ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BA4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BB4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BC4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BD4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BE4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BF4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BG4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BI4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BJ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BK4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BL4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BM4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BN4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BO4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BP4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BQ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BR4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BS4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BT4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BU4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BV4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BW4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BX4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BY4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BZ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CA4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CB4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CC4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CD4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CE4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CF4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CG4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CH4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CI4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CJ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CK4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CL4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CM4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CN4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CO4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CP4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CQ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CR4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CS4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CT4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CU4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CV4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CW4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CX4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CY4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CZ4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DA4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DB4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DC4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DD4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DE4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DF4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DG4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DH4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DI4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DJ4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DK4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DL4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DM4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DN4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DO4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DP4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DQ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DR4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DS4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DT4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DU4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DV4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DW4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DX4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DY4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DZ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EA4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EB4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EC4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ED4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EE4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EF4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EG4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EH4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EI4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EJ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EK4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EL4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EM4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EN4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EO4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EP4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EQ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ER4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ES4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="ET4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EU4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EV4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EW4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EX4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EY4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EZ4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FA4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FB4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FC4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FD4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FE4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="FF4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="FG4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AE5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AQ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AR5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AS5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AU5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AV5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AW5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AX5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AY5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AZ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BA5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BB5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BC5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BD5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BE5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BF5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BG5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BI5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BJ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BK5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BL5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BM5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BN5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BO5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BP5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BQ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BR5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BS5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BT5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BU5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BV5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BW5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BX5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BY5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BZ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CA5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CB5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CC5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CD5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CE5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CF5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CG5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CH5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CI5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CJ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CK5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CL5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CM5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CN5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CO5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CP5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CQ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CR5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CS5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CT5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CU5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CV5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CW5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CX5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CY5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CZ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DA5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DB5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DC5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DD5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DE5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DF5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DG5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DH5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DI5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DJ5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DK5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DL5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DM5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DN5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DO5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DP5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="DQ5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="DR5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="DS5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DT5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DU5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DV5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DW5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DX5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="DY5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DZ5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EA5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EB5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="EC5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="ED5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EE5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EF5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EG5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EH5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EI5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EJ5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EK5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="EL5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="EM5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EN5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EO5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EP5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EQ5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="ER5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="ES5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="ET5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EU5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EV5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="EW5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="EX5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="EY5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="EZ5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="FA5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FB5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FC5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FD5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FE5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="FF5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="FG5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="492">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t>staffingComment</t>
+  </si>
+  <si>
+    <t>facilityComment</t>
   </si>
   <si>
     <t>---</t>
@@ -2492,15 +2495,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QH5"/>
+  <dimension ref="A1:QI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="PN1" workbookViewId="0">
-      <selection activeCell="QC6" sqref="QC6"/>
+    <sheetView tabSelected="1" topLeftCell="PP1" workbookViewId="0">
+      <selection activeCell="PX3" sqref="PX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:450">
+    <row r="1" s="1" customFormat="1" spans="1:451">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3847,1970 +3850,1973 @@
       </c>
       <c r="QH1" s="3" t="s">
         <v>445</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" t="s">
         <v>449</v>
       </c>
-      <c r="E2" t="s">
-        <v>448</v>
-      </c>
       <c r="F2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AP2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AR2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AS2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AV2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AW2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AX2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AY2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AZ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BD2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BE2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BF2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BG2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BH2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BI2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BJ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BK2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BL2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BM2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BN2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BO2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BP2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BR2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BS2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BT2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BV2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BW2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BX2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BY2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BZ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CD2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CE2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CF2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CH2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CI2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CJ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CK2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CL2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CM2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CN2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CO2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CP2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CR2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CS2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CT2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CV2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CW2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CX2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CY2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CZ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DD2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DE2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DF2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DG2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DH2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DI2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DJ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DK2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DL2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DM2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DN2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DO2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DP2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DR2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DS2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DT2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DV2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DW2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DX2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DY2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DZ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ED2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EE2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EF2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EG2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EH2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EI2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EJ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EK2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EL2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EM2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EN2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EO2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EP2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ER2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ES2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ET2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EU2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EV2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EW2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EX2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EY2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EZ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FB2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FC2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FD2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FE2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="FF2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="FG2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="X3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AE3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AI3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AQ3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AX3" t="s">
         <v>462</v>
       </c>
-      <c r="AR3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>461</v>
-      </c>
       <c r="AY3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AZ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BA3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BB3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BC3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BD3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BE3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BF3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BG3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BH3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BI3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BJ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BK3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BL3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="BM3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BN3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BO3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BP3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BQ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BR3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BS3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BT3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BU3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BV3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BW3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BX3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BY3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BZ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CA3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CB3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CC3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CD3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CE3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CF3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CG3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CH3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CI3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CJ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CK3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CL3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CM3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CN3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CO3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CP3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CQ3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CR3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CS3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CT3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CU3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CV3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CW3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CX3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CY3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CZ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DA3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DB3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DC3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DD3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DE3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DF3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DG3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DH3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DI3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DJ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DK3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DL3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DM3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DN3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DO3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DP3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DQ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DR3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DS3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DT3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DU3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DV3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DW3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DX3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DY3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DZ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EA3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EB3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EC3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ED3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EE3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EF3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EG3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EH3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EI3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EJ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EK3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EL3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EM3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EN3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EO3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EP3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EQ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ER3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ES3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ET3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EU3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EV3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EW3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EX3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EY3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EZ3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FA3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FB3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FC3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FD3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FE3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="FF3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="FG3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AP4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AR4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AS4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AU4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AV4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AW4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AX4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AY4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AZ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BA4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BB4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BC4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BD4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BE4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BF4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BG4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BH4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BI4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BJ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BK4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BL4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BM4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BN4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BO4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BP4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BQ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BR4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BS4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BT4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BU4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BV4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BW4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BX4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BY4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BZ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CA4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CB4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CC4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CD4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CE4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CF4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CH4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CI4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CJ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CK4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CL4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CM4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CN4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CO4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CP4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CQ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CR4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CS4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CT4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CU4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CV4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CW4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CX4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CY4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CZ4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DA4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DB4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DC4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DD4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DE4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DF4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DG4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DH4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DI4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DJ4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DK4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DL4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DM4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DN4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DO4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DP4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DQ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DR4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DS4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DT4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DU4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DV4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DW4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DX4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DY4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DZ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EA4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EB4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EC4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ED4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EE4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EF4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EG4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EH4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EI4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EJ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EK4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EL4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EM4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EN4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EO4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EP4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EQ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ER4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ES4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="ET4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EU4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EV4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EW4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EX4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EY4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EZ4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FA4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FB4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FC4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FD4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FE4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="FF4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="FG4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AP5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AR5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AS5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AU5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AV5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AW5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AX5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AY5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AZ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BA5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BB5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BC5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BD5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BE5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BF5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BG5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BH5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BI5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BJ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BK5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BL5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BM5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BN5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BO5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BP5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BQ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BR5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BS5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BT5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BU5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BV5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BW5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BX5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BY5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BZ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CA5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CB5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CC5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CD5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CE5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CF5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CH5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CI5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CJ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CK5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CL5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CM5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CN5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CO5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CP5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CQ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CR5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CS5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CT5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CU5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CV5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CW5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CX5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CY5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CZ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DA5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DB5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DC5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DD5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DE5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DF5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DG5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DH5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DI5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DJ5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DK5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DL5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DM5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DN5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DO5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DP5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="DQ5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="DR5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DS5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DT5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DU5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DV5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="DW5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DX5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="DY5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DZ5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EA5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EB5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="EC5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="ED5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EE5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EF5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EG5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EH5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EI5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EJ5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EK5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="EL5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="EM5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EN5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="EO5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EP5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EQ5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="ER5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="ES5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="ET5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EU5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EV5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="EW5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EX5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="EY5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EZ5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="FA5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FB5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FC5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FD5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="FE5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="FF5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="FG5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="493">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>facilityComment</t>
+  </si>
+  <si>
+    <t>spaceandClientFlow</t>
   </si>
   <si>
     <t>---</t>
@@ -2495,15 +2498,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QI5"/>
+  <dimension ref="A1:QJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="PP1" workbookViewId="0">
-      <selection activeCell="PX3" sqref="PX3"/>
+      <selection activeCell="QF9" sqref="QF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:451">
+    <row r="1" s="1" customFormat="1" spans="1:452">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3853,1970 +3856,1973 @@
       </c>
       <c r="QI1" s="1" t="s">
         <v>446</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" t="s">
         <v>450</v>
       </c>
-      <c r="E2" t="s">
-        <v>449</v>
-      </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AQ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AS2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AU2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AV2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AX2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AY2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AZ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BD2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BE2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BF2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BG2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BH2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BI2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BJ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BK2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BL2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BM2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BN2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BO2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BP2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BQ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BR2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BS2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BT2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BU2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BV2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BX2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BY2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BZ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CD2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CE2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CF2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CG2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CH2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CI2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CJ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CK2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CL2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CM2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CN2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CO2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CP2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CQ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CR2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CS2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CT2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CU2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CV2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CX2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CY2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CZ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DD2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DE2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DF2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DG2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DH2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DI2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DJ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DK2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DL2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DM2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DN2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DO2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DP2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DQ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DR2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DS2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DT2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DU2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DV2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DX2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DY2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DZ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ED2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EE2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EF2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EG2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EH2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EI2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EJ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EK2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EL2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EM2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EN2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EO2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EP2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EQ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ER2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ES2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ET2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EU2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EV2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EW2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EX2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EY2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EZ2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FA2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FB2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FC2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FD2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FE2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="FF2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="FG2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="U3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AB3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AC3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AE3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AQ3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX3" t="s">
         <v>463</v>
       </c>
-      <c r="AR3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>462</v>
-      </c>
       <c r="AY3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AZ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BA3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BB3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BC3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BD3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BE3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BF3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BG3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BH3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BI3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BJ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BK3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BL3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BM3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BN3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BO3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BP3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BQ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BR3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BS3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BT3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BU3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BV3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BW3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BX3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BY3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="BZ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CA3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CB3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CC3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CD3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CE3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CF3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CG3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CH3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CI3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CJ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CK3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CL3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CM3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CN3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CO3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CP3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CQ3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CR3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CS3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CT3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CU3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CV3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CW3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CX3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CY3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CZ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DA3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DB3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DC3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DD3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DE3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DF3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DG3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DH3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DI3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DJ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DK3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DL3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DM3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DN3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DO3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DP3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DQ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DR3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DS3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DT3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DU3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DV3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DW3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DX3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DY3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DZ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EA3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EB3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EC3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ED3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EE3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EF3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EG3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EH3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EI3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EJ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EK3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EL3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EM3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EN3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EO3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EP3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EQ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ER3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ES3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ET3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EU3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EV3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EW3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EX3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EY3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EZ3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FA3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FB3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FC3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FD3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FE3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="FF3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="FG3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AB4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AQ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AS4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AU4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AV4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AW4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AX4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AY4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AZ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BA4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BB4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BC4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BD4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BE4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BF4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BG4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BH4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BI4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BJ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BK4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BL4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BM4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BN4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BO4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BP4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BQ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BR4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BS4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BT4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BU4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BV4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BW4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BX4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BY4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BZ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CA4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CB4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CC4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CD4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CE4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CF4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CG4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CH4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CI4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CJ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CK4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CL4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CM4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CN4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CO4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CP4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CQ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CR4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CS4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CT4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CU4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CV4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CW4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CX4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CY4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CZ4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DA4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DB4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DC4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DD4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DE4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DF4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DG4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DH4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DI4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DJ4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DK4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DL4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DM4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DN4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DO4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DP4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DQ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DR4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DS4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DT4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DU4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DV4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DW4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DX4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DY4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DZ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EA4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EB4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EC4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ED4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EE4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EF4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EG4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EH4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EI4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EJ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EK4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EL4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EM4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EN4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EO4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EP4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EQ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ER4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ES4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="ET4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EU4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EV4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EW4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EX4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EY4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EZ4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FA4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FB4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FC4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FD4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FE4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="FF4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="FG4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AB5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AQ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AR5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AS5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AU5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AV5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AW5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AX5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AY5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AZ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BA5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BB5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BC5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BD5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BE5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BF5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BG5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BH5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BI5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BJ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BK5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BL5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BM5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BN5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BO5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BP5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BQ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BR5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BS5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BT5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BU5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BV5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BW5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BX5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BY5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BZ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CA5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CB5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CC5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CD5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CE5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CF5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CG5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CH5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CI5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CJ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CK5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CL5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CM5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CN5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CO5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CP5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CQ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CR5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CS5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CT5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CU5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CV5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CW5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CX5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CY5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CZ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DA5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DB5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DC5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DD5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DE5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DF5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DG5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DH5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DI5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DJ5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DK5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DL5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DM5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DN5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DO5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DP5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="DQ5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="DR5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DS5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DT5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="DU5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DV5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="DW5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DX5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="DY5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DZ5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EA5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EB5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="EC5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="ED5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="EE5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EF5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="EG5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EH5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="EI5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EJ5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EK5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="EL5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="EM5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EN5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="EO5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EP5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EQ5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="ER5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="ES5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="ET5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EU5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EV5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="EW5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EX5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EY5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="EZ5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="FA5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FB5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FC5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FD5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="FE5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="FF5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="FG5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="553">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1371,6 +1371,186 @@
   </si>
   <si>
     <t>spaceandClientFlow</t>
+  </si>
+  <si>
+    <t>form.question1.pocforInstrumentReprocessiong</t>
+  </si>
+  <si>
+    <t>form.question1.pocCompetency</t>
+  </si>
+  <si>
+    <t>form.question1.SOPavailability</t>
+  </si>
+  <si>
+    <t>form.question1.leadershipComment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.instrumentsRinsed</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.comunicatingInstrumentProblems</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.prolongedInstrumentSoaking</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.disinfectantAvoided</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.instrumentsLeftOpen</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.transportationofInstruments</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.instrumentsKeptMoist</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.PreCleaningComment</t>
+  </si>
+  <si>
+    <t>form.cleaning.appropriatePPE</t>
+  </si>
+  <si>
+    <t>form.cleaning.cleanContainerWithWater</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsCleaned</t>
+  </si>
+  <si>
+    <t>form.cleaning.hingedInstrumentsOpened</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsImmersedWithCleanWater</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsInspectedAfterCleaning</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsCleanedinArea</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsAirDried</t>
+  </si>
+  <si>
+    <t>form.cleaning.instrumentsCleaningArea</t>
+  </si>
+  <si>
+    <t>form.cleaning.separationofInstruments</t>
+  </si>
+  <si>
+    <t>form.cleaning.cleaningComment</t>
+  </si>
+  <si>
+    <t>form.question3.properFunctionCheck</t>
+  </si>
+  <si>
+    <t>form.question3.kitsCompleteness</t>
+  </si>
+  <si>
+    <t>form.question3.permeabletoSterilisation</t>
+  </si>
+  <si>
+    <t>form.question3.packagingEnclose</t>
+  </si>
+  <si>
+    <t>form.question3.packagingMantainSterility</t>
+  </si>
+  <si>
+    <t>form.question3.packageExternalChemicalIndicator</t>
+  </si>
+  <si>
+    <t>form.question3.packageInternalChemicalIndicator</t>
+  </si>
+  <si>
+    <t>form.question3.packageExpiryDate</t>
+  </si>
+  <si>
+    <t>form.question3.packagingComment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.steamSterilisation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.autoclaveTraining</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.cycleTemperature</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.cycleParametersinLogBook</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.autoclaveSteamContact</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.correctCycleParametersMet</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.externalIndicatorsAprropriatelyChanged</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.noVisibleMoisture</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.noCompromisedIntegrity</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.bowie-dickTest</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.biologicalIndicator</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.distilledWater</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.distilledWaterInventory</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.annualRoutineMaintenance</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.flowofInstrumentsinSterilisationArea</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.indicatorswithinExpirationDates</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.reprocessingofEquipment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.copy-1-of-reprocessingofEquipment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question3.sterilisationComment</t>
+  </si>
+  <si>
+    <t>form.external_transportation.is_the_portion_of_the_transport_vehicle_where_instrument_containers_are_pla</t>
+  </si>
+  <si>
+    <t>form.external_transportation.markingofContainers</t>
+  </si>
+  <si>
+    <t>form.external_transportation.interSiteInstrumentExchangeSy</t>
+  </si>
+  <si>
+    <t>form.external_transportation.transportationComment</t>
+  </si>
+  <si>
+    <t>form.storage.are_freshly_sterilized_instruments_allowed_to_cool_to_room_temperature_befo</t>
+  </si>
+  <si>
+    <t>form.storage.firstInfirstOut</t>
+  </si>
+  <si>
+    <t>form.storage.inventoryMonitoringSystem</t>
+  </si>
+  <si>
+    <t>form.storage.comments_and_recommendations</t>
+  </si>
+  <si>
+    <t>form.overallComments</t>
   </si>
   <si>
     <t>---</t>
@@ -2498,15 +2678,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:QJ5"/>
+  <dimension ref="A1:SY5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="PP1" workbookViewId="0">
-      <selection activeCell="QF9" sqref="QF9"/>
+      <selection activeCell="PT1" sqref="PT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:452">
+    <row r="1" s="1" customFormat="1" spans="1:519">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3859,1970 +4039,2171 @@
       </c>
       <c r="QJ1" s="1" t="s">
         <v>447</v>
+      </c>
+      <c r="QK1" t="s">
+        <v>448</v>
+      </c>
+      <c r="QL1" t="s">
+        <v>449</v>
+      </c>
+      <c r="QM1" t="s">
+        <v>450</v>
+      </c>
+      <c r="QN1" t="s">
+        <v>451</v>
+      </c>
+      <c r="QO1" t="s">
+        <v>452</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>453</v>
+      </c>
+      <c r="QQ1" t="s">
+        <v>454</v>
+      </c>
+      <c r="QR1" t="s">
+        <v>455</v>
+      </c>
+      <c r="QS1" t="s">
+        <v>456</v>
+      </c>
+      <c r="QT1" t="s">
+        <v>457</v>
+      </c>
+      <c r="QU1" t="s">
+        <v>458</v>
+      </c>
+      <c r="QV1" t="s">
+        <v>459</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>460</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>461</v>
+      </c>
+      <c r="QY1" t="s">
+        <v>462</v>
+      </c>
+      <c r="QZ1" t="s">
+        <v>463</v>
+      </c>
+      <c r="RA1" t="s">
+        <v>464</v>
+      </c>
+      <c r="RB1" t="s">
+        <v>465</v>
+      </c>
+      <c r="RC1" t="s">
+        <v>466</v>
+      </c>
+      <c r="RD1" t="s">
+        <v>467</v>
+      </c>
+      <c r="RE1" t="s">
+        <v>468</v>
+      </c>
+      <c r="RF1" t="s">
+        <v>469</v>
+      </c>
+      <c r="RG1" t="s">
+        <v>470</v>
+      </c>
+      <c r="RH1" t="s">
+        <v>471</v>
+      </c>
+      <c r="RI1" t="s">
+        <v>472</v>
+      </c>
+      <c r="RJ1" t="s">
+        <v>473</v>
+      </c>
+      <c r="RK1" t="s">
+        <v>474</v>
+      </c>
+      <c r="RL1" t="s">
+        <v>475</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>476</v>
+      </c>
+      <c r="RN1" t="s">
+        <v>477</v>
+      </c>
+      <c r="RO1" t="s">
+        <v>478</v>
+      </c>
+      <c r="RP1" t="s">
+        <v>479</v>
+      </c>
+      <c r="RQ1" t="s">
+        <v>480</v>
+      </c>
+      <c r="RR1" t="s">
+        <v>481</v>
+      </c>
+      <c r="RS1" t="s">
+        <v>482</v>
+      </c>
+      <c r="RT1" t="s">
+        <v>483</v>
+      </c>
+      <c r="RU1" t="s">
+        <v>484</v>
+      </c>
+      <c r="RV1" t="s">
+        <v>485</v>
+      </c>
+      <c r="RW1" t="s">
+        <v>486</v>
+      </c>
+      <c r="RX1" t="s">
+        <v>487</v>
+      </c>
+      <c r="RY1" t="s">
+        <v>488</v>
+      </c>
+      <c r="RZ1" t="s">
+        <v>489</v>
+      </c>
+      <c r="SA1" t="s">
+        <v>490</v>
+      </c>
+      <c r="SB1" t="s">
+        <v>491</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>492</v>
+      </c>
+      <c r="SD1" t="s">
+        <v>493</v>
+      </c>
+      <c r="SE1" t="s">
+        <v>494</v>
+      </c>
+      <c r="SF1" t="s">
+        <v>495</v>
+      </c>
+      <c r="SG1" t="s">
+        <v>496</v>
+      </c>
+      <c r="SH1" t="s">
+        <v>497</v>
+      </c>
+      <c r="SI1" t="s">
+        <v>498</v>
+      </c>
+      <c r="SJ1" t="s">
+        <v>499</v>
+      </c>
+      <c r="SK1" t="s">
+        <v>500</v>
+      </c>
+      <c r="SL1" t="s">
+        <v>501</v>
+      </c>
+      <c r="SM1" t="s">
+        <v>502</v>
+      </c>
+      <c r="SN1" t="s">
+        <v>503</v>
+      </c>
+      <c r="SO1" t="s">
+        <v>504</v>
+      </c>
+      <c r="SP1" t="s">
+        <v>505</v>
+      </c>
+      <c r="SQ1" t="s">
+        <v>506</v>
+      </c>
+      <c r="SR1" t="s">
+        <v>507</v>
+      </c>
+      <c r="SS1" t="s">
+        <v>442</v>
+      </c>
+      <c r="ST1" t="s">
+        <v>443</v>
+      </c>
+      <c r="SU1" t="s">
+        <v>441</v>
+      </c>
+      <c r="SV1" t="s">
+        <v>405</v>
+      </c>
+      <c r="SW1" t="s">
+        <v>406</v>
+      </c>
+      <c r="SX1" t="s">
+        <v>407</v>
+      </c>
+      <c r="SY1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="G2" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="H2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="I2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="K2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="L2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="M2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="N2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="O2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="P2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Q2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="R2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="S2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="T2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="U2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="V2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="W2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="X2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Y2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Z2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AD2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AE2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AF2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AG2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AH2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AI2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AJ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AK2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AL2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AM2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AN2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AO2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AP2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AQ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AR2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AS2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AT2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AU2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AV2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AW2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AX2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AY2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AZ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BD2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BE2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BF2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BG2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BH2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BI2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BJ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BK2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BL2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BM2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BN2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BO2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BP2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BQ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BR2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BS2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BT2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BU2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BV2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BW2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BX2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BY2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BZ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CD2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CE2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CF2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CG2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CH2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CI2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CJ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CK2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CL2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CM2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CN2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CO2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CP2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CQ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CR2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CS2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CT2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CU2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CV2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CW2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CX2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CY2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CZ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DD2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DE2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DF2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DG2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DH2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DI2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DJ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DK2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DL2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DM2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DN2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DO2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DP2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DQ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DR2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DS2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DT2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DU2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DV2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DW2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DX2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DY2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DZ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ED2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EE2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EF2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EG2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EH2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EI2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EJ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EK2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EL2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EM2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EN2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EO2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EP2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EQ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ER2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ES2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ET2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EU2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EV2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EW2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EX2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EY2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EZ2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FA2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FB2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FC2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FD2" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FE2" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="FF2" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="FG2" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="G3" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="H3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="J3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="L3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="M3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="N3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="O3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="P3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="R3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="S3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="T3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="U3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="V3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="W3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="X3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Y3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Z3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AA3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AB3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AC3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AD3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AE3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AF3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AG3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AH3" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="AI3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AJ3" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="AK3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AL3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AM3" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="AN3" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="AO3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AP3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AQ3" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="AR3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AS3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AT3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AU3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AV3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AW3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AX3" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="AY3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AZ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BA3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BB3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BC3" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="BD3" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="BE3" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="BF3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BG3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BH3" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="BI3" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="BJ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BK3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BL3" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="BM3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BN3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BO3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BP3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BQ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BR3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BS3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BT3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BU3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BV3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BW3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BX3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BY3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="BZ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CA3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CB3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CC3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CD3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CE3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CF3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CG3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CH3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CI3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CJ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CK3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CL3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CM3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CN3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CO3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CP3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CQ3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CR3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CS3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CT3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CU3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CV3" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CW3" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="CX3" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="CY3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CZ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DA3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DB3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DC3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DD3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DE3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DF3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DG3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DH3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DI3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DJ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DK3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DL3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DM3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DN3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DO3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DP3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DQ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DR3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DS3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DT3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DU3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DV3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DW3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DX3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DY3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DZ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EA3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EB3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EC3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ED3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EE3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EF3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EG3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EH3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EI3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EJ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EK3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EL3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EM3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EN3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EO3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EP3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EQ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ER3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ES3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ET3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EU3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EV3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EW3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EX3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EY3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EZ3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FA3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FB3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FC3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FD3" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FE3" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="FF3" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="FG3" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="G4" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="H4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="I4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="J4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="K4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="L4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="M4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="N4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="O4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="P4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Q4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="R4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="S4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="T4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="U4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="V4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="W4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="X4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Y4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Z4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AA4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AB4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AC4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AD4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AE4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AF4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AG4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AH4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AI4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AJ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AK4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AL4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AM4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AN4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AO4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AP4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AQ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AR4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AS4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AT4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AU4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AV4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AW4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AX4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AY4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AZ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BA4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BB4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BC4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BD4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BE4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BF4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BG4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BH4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BI4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BJ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BK4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BL4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BM4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BN4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BO4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BP4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BQ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BR4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BS4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BT4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BU4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BV4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BW4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BX4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BY4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BZ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CA4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CB4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CC4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CD4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CE4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CF4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CG4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CH4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CI4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CJ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CK4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CL4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CM4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CN4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CO4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CP4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CQ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CR4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CS4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CT4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CU4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CV4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CW4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CX4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CY4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="CZ4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DA4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DB4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DC4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DD4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DE4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DF4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DG4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DH4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DI4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DJ4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DK4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DL4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DM4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DN4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DO4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DP4" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DQ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DR4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DS4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DT4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DU4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DV4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DW4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DX4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DY4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DZ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EA4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EB4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EC4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ED4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EE4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EF4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EG4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EH4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EI4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EJ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EK4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EL4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EM4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EN4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EO4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EP4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EQ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ER4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ES4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="ET4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EU4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EV4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EW4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EX4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EY4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EZ4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FA4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FB4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FC4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FD4" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FE4" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="FF4" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="FG4" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="D5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="H5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="I5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="J5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="K5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="M5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="N5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="O5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="P5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Q5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="R5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="S5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="T5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="U5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="V5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="W5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="X5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Y5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="Z5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AA5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AB5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AC5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AD5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AE5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AF5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AG5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AH5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AI5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AJ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AK5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AL5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AM5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AN5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AO5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AP5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AQ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AR5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AS5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AT5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AU5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AV5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AW5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AX5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AY5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AZ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BA5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BB5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BC5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BD5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BE5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BF5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BG5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BH5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BI5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BJ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BK5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BL5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BM5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BN5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BO5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BP5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BQ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BR5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BS5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BT5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BU5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BV5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BW5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BX5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BY5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="BZ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CA5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CB5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CC5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CD5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CE5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CF5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CG5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CH5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CI5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CJ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CK5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CL5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CM5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CN5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CO5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CP5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CQ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CR5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CS5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CT5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CU5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CV5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CW5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CX5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CY5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="CZ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DA5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DB5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DC5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DD5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DE5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DF5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DG5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DH5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DI5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DJ5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DK5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DL5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DM5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DN5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DO5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DP5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="DQ5" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="DR5" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="DS5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DT5" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="DU5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DV5" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="DW5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DX5" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="DY5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="DZ5" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="EA5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EB5" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="EC5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="ED5" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="EE5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EF5" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="EG5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EH5" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="EI5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EJ5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EK5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="EL5" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="EM5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EN5" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="EO5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EP5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EQ5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="ER5" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="ES5" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="ET5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EU5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EV5" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="EW5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="EX5" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="EY5" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="EZ5" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="FA5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FB5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FC5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FD5" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="FE5" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="FF5" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="FG5" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="554">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1551,6 +1551,9 @@
   </si>
   <si>
     <t>form.overallComments</t>
+  </si>
+  <si>
+    <t>assessors</t>
   </si>
   <si>
     <t>---</t>
@@ -2678,15 +2681,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:SY5"/>
+  <dimension ref="A1:SZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="PP1" workbookViewId="0">
-      <selection activeCell="PT1" sqref="PT1"/>
+    <sheetView tabSelected="1" topLeftCell="SE1" workbookViewId="0">
+      <selection activeCell="ST18" sqref="ST18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:519">
+    <row r="1" s="1" customFormat="1" spans="1:520">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4240,1970 +4243,1973 @@
       </c>
       <c r="SY1" t="s">
         <v>408</v>
+      </c>
+      <c r="SZ1" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
         <v>511</v>
       </c>
-      <c r="E2" t="s">
-        <v>510</v>
-      </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="X2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AD2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AE2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AI2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AQ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AR2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AS2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AT2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AU2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AV2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AW2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AX2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AY2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AZ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BD2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BE2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BF2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BG2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BH2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BI2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BJ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BK2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BL2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BM2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BN2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BO2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BP2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BQ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BR2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BS2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BT2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BU2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BV2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BW2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BX2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BY2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BZ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CD2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CE2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CF2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CG2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CH2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CI2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CJ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CK2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CL2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CM2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CN2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CO2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CP2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CQ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CR2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CS2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CT2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CU2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CV2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CW2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CX2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CY2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CZ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DD2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DE2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DF2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DG2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DH2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DI2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DJ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DK2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DL2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DM2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DN2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DO2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DP2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DQ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DR2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DS2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DT2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DU2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DV2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DW2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DX2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DY2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DZ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ED2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EE2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EF2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EG2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EH2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EI2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EJ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EK2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EL2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EM2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EN2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EO2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EP2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EQ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ER2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ES2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ET2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EU2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EV2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EW2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EX2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EY2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EZ2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FA2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FB2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FC2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FD2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FE2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="FF2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="FG2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="R3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="S3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="U3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="X3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AB3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AC3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AD3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AE3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AH3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AP3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AQ3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AX3" t="s">
         <v>524</v>
       </c>
-      <c r="AR3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>523</v>
-      </c>
       <c r="AY3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AZ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BA3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BB3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BC3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BD3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BE3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BF3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BG3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BH3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BI3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BJ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BK3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BL3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BM3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BN3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BO3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BP3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BQ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BR3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BS3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BT3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BU3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BV3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BW3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BX3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BY3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BZ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CA3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CB3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CC3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CD3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CE3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CF3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CG3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CH3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CI3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CJ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CK3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CL3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CM3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CN3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CO3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CP3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CQ3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CR3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CS3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CT3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CU3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CV3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CW3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CX3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CY3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CZ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DA3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DB3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DC3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DD3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DE3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DF3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DG3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DH3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DI3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DJ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DK3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DL3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DM3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DN3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DO3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DP3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DQ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DR3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DS3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DT3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DU3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DV3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DW3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DX3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DY3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DZ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EA3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EB3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EC3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ED3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EE3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EF3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EG3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EH3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EI3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EJ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EK3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EL3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EM3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EN3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EO3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EP3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EQ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ER3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ES3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ET3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EU3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EV3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EW3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EX3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EY3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EZ3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FA3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FB3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FC3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FD3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FE3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="FF3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="FG3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="X4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AD4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AE4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AI4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AQ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AR4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AS4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AT4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AU4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AV4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AW4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AX4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AY4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AZ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BA4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BB4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BC4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BD4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BE4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BF4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BG4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BH4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BI4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BJ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BK4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BL4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BM4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BN4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BO4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BP4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BQ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BR4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BS4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BT4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BU4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BV4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BW4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BX4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BY4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BZ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CA4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CB4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CC4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CD4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CE4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CF4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CG4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CH4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CI4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CJ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CK4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CL4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CM4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CN4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CO4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CP4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CQ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CR4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CS4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CT4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CU4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CV4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CW4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CX4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CY4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CZ4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DA4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DB4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DC4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DD4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DE4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DF4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DG4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DH4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DI4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DJ4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DK4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DL4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DM4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DN4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DO4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DP4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DQ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DR4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DS4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DT4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DU4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DV4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DW4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DX4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DY4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DZ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EA4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EB4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EC4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ED4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EE4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EF4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EG4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EH4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EI4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EJ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EK4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EL4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EM4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EN4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EO4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EP4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EQ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ER4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ES4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="ET4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EU4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EV4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EW4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EX4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EY4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EZ4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FA4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FB4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FC4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FD4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FE4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="FF4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="FG4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="X5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AD5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AE5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AI5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AP5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AQ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AR5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AS5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AT5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AU5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AV5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AW5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AX5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AY5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AZ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BA5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BB5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BC5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BD5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BE5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BF5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BG5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BH5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BI5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BJ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BK5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BL5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BM5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BN5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BO5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BP5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BQ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BR5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BS5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BT5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BU5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BV5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BW5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BX5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BY5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BZ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CA5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CB5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CC5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CD5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CE5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CF5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CG5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CH5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CI5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CJ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CK5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CL5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CM5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CN5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CO5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CP5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CQ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CR5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CS5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CT5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CU5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CV5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CW5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CX5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CY5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CZ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DA5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DB5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DC5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DD5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DE5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DF5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DG5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DH5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DI5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DJ5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DK5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DL5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DM5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DN5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DO5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DP5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="DQ5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="DR5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="DS5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DT5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="DU5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DV5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DW5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DX5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DY5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DZ5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="EA5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EB5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="EC5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="ED5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="EE5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EF5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="EG5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EH5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="EI5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EJ5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EK5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EL5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EM5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EN5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EO5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EP5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EQ5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="ER5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="ES5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="ET5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EU5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EV5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="EW5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EX5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="EY5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="EZ5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="FA5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FB5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FC5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FD5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="FE5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="FF5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="FG5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="555">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1554,6 +1554,9 @@
   </si>
   <si>
     <t>assessors</t>
+  </si>
+  <si>
+    <t>comments_and_recommendations_data_triangulation</t>
   </si>
   <si>
     <t>---</t>
@@ -2681,15 +2684,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:SZ5"/>
+  <dimension ref="A1:TA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="SE1" workbookViewId="0">
-      <selection activeCell="ST18" sqref="ST18"/>
+    <sheetView tabSelected="1" topLeftCell="SI1" workbookViewId="0">
+      <selection activeCell="TA1" sqref="TA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:520">
+    <row r="1" s="1" customFormat="1" spans="1:521">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4246,1970 +4249,1973 @@
       </c>
       <c r="SZ1" s="1" t="s">
         <v>508</v>
+      </c>
+      <c r="TA1" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" t="s">
         <v>512</v>
       </c>
-      <c r="E2" t="s">
-        <v>511</v>
-      </c>
       <c r="F2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="U2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="X2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AE2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AQ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AR2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AS2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AT2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AU2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AV2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AW2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AX2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AY2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AZ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BD2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BE2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BF2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BG2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BH2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BI2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BJ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BK2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BL2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BM2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BN2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BO2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BP2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BQ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BR2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BS2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BT2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BU2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BV2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BW2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BX2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BY2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BZ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CD2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CE2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CF2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CG2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CH2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CI2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CJ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CK2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CL2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CM2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CN2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CO2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CP2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CQ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CR2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CS2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CT2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CU2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CV2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CW2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CX2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CY2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CZ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DD2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DE2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DF2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DG2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DH2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DI2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DJ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DK2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DL2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DM2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DN2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DO2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DP2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DQ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DR2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DS2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DT2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DU2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DV2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DW2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DX2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DY2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DZ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ED2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EE2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EF2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EG2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EH2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EI2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EJ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EK2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EL2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EM2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EN2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EO2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EP2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EQ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ER2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ES2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ET2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EU2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EV2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EW2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EX2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EY2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EZ2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FA2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FB2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FC2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FD2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FE2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="FF2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="FG2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="U3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="W3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="X3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AB3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AC3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AH3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AI3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AK3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AP3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AQ3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AX3" t="s">
         <v>525</v>
       </c>
-      <c r="AR3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>524</v>
-      </c>
       <c r="AY3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AZ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BA3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BB3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BC3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BD3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BE3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BF3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BG3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BH3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BI3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BJ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BK3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BL3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BM3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BN3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BO3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BP3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BQ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BR3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BS3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BT3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BU3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BV3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BW3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BX3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BY3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BZ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CA3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CB3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CC3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CD3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CE3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CF3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CG3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CH3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CI3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CJ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CK3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CL3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CM3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CN3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CO3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CP3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CQ3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CR3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CS3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CT3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CU3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CV3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CW3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CX3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="CY3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CZ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DA3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DB3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DC3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DD3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DE3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DF3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DG3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DH3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DI3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DJ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DK3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DL3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DM3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DN3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DO3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DP3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DQ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DR3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DS3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DT3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DU3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DV3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DW3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DX3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DY3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DZ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EA3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EB3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EC3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ED3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EE3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EF3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EG3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EH3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EI3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EJ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EK3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EL3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EM3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EN3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EO3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EP3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EQ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ER3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ES3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ET3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EU3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EV3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EW3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EX3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EY3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EZ3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FA3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FB3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FC3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FD3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FE3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="FF3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="FG3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="U4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="X4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AC4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AE4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AQ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AR4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AS4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AT4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AU4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AV4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AW4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AX4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AY4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AZ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BA4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BB4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BC4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BD4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BE4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BF4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BG4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BH4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BI4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BJ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BK4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BL4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BM4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BN4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BO4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BP4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BQ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BR4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BS4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BT4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BU4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BV4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BW4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BX4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BY4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BZ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CA4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CB4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CC4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CD4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CE4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CF4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CG4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CH4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CI4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CJ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CK4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CL4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CM4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CN4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CO4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CP4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CQ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CR4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CS4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CT4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CU4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CV4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CW4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CX4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CY4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CZ4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DA4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DB4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DC4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DD4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DE4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DF4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DG4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DH4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DI4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DJ4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DK4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DL4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DM4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DN4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DO4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DP4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DQ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DR4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DS4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DT4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DU4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DV4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DW4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DX4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DY4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DZ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EA4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EB4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EC4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ED4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EE4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EF4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EG4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EH4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EI4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EJ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EK4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EL4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EM4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EN4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EO4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EP4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EQ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ER4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ES4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="ET4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EU4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EV4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EW4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EX4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EY4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EZ4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FA4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FB4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FC4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FD4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FE4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="FF4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="FG4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="U5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="X5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AC5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AE5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AQ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AR5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AS5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AT5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AU5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AV5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AW5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AX5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AY5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AZ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BA5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BB5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BC5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BD5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BE5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BF5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BG5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BH5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BI5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BJ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BK5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BL5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BM5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BN5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BO5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BP5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BQ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BR5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BS5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BT5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BU5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BV5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BW5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BX5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BY5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BZ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CA5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CB5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CC5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CD5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CE5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CF5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CG5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CH5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CI5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CJ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CK5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CL5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CM5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CN5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CO5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CP5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CQ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CR5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CS5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CT5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CU5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CV5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CW5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CX5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CY5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CZ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DA5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DB5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DC5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DD5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DE5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DF5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DG5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DH5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DI5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DJ5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DK5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DL5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DM5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DN5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DO5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DP5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="DQ5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="DR5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="DS5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DT5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DU5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DV5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DW5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DX5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DY5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DZ5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="EA5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EB5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="EC5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="ED5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EE5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EF5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EG5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EH5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EI5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EJ5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EK5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EL5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EM5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EN5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EO5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EP5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EQ5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="ER5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="ES5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="ET5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EU5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EV5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="EW5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EX5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="EY5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="EZ5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="FA5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FB5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FC5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FD5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="FE5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="FF5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="FG5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="556">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>comments_and_recommendations_data_triangulation</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
   <si>
     <t>---</t>
@@ -2684,15 +2687,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:TA5"/>
+  <dimension ref="A1:TB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="SI1" workbookViewId="0">
-      <selection activeCell="TA1" sqref="TA1"/>
+    <sheetView tabSelected="1" topLeftCell="SK1" workbookViewId="0">
+      <selection activeCell="TA7" sqref="TA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:521">
+    <row r="1" s="1" customFormat="1" spans="1:522">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,1970 +4255,1973 @@
       </c>
       <c r="TA1" s="1" t="s">
         <v>509</v>
+      </c>
+      <c r="TB1" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" t="s">
         <v>513</v>
       </c>
-      <c r="E2" t="s">
-        <v>512</v>
-      </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="W2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="X2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AD2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AP2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AQ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AR2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AS2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AT2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AU2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AV2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AW2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AX2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AY2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AZ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BD2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BE2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BF2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BG2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BH2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BJ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BK2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BL2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BM2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BN2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BO2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BP2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BQ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BR2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BS2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BT2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BU2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BV2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BW2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BX2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BY2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BZ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CD2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CE2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CF2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CG2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CH2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CI2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CJ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CK2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CL2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CM2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CN2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CO2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CP2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CQ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CR2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CS2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CT2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CU2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CV2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CW2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CX2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CY2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CZ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DD2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DE2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DF2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DG2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DH2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DI2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DJ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DK2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DL2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DM2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DN2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DO2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DP2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DQ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DR2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DS2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DT2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DU2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DV2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DW2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DX2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DY2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DZ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ED2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EE2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EF2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EG2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EH2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EI2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EJ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EK2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EL2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EM2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EN2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EO2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EP2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EQ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ER2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ES2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ET2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EU2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EV2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EW2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EX2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EY2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EZ2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FA2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FB2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FC2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FD2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FE2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="FF2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="FG2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="U3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="W3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="X3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AC3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AD3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AE3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AH3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AI3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AK3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AP3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AQ3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AX3" t="s">
         <v>526</v>
       </c>
-      <c r="AR3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>525</v>
-      </c>
       <c r="AY3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AZ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BA3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BB3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BC3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BD3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BE3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BF3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BG3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BH3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BI3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BJ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BK3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BL3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BM3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BN3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BO3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BP3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BQ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BR3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BS3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BT3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BU3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BV3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BW3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BX3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BY3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BZ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CA3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CB3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CC3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CD3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CE3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CF3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CG3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CH3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CI3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CJ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CK3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CL3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CM3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CN3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CO3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CP3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CQ3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CR3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CS3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CT3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CU3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CV3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CW3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="CX3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="CY3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CZ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DA3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DB3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DC3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DD3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DE3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DF3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DG3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DH3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DI3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DJ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DK3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DL3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DM3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DN3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DO3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DP3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DQ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DR3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DS3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DT3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DU3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DV3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DW3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DX3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DY3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DZ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EA3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EB3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EC3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ED3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EE3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EF3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EG3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EH3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EI3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EJ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EK3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EL3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EM3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EN3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EO3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EP3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EQ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ER3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ES3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ET3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EU3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EV3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EW3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EX3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EY3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EZ3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FA3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FB3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FC3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FD3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FE3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="FF3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="FG3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="W4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="X4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AB4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AD4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AP4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AQ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AR4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AS4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AT4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AU4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AV4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AW4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AX4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AY4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AZ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BA4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BB4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BC4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BD4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BE4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BF4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BG4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BH4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BJ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BK4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BL4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BM4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BN4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BO4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BP4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BQ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BR4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BS4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BT4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BU4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BV4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BW4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BX4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BY4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BZ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CA4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CB4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CC4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CD4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CE4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CF4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CG4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CH4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CI4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CJ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CK4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CL4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CM4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CN4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CO4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CP4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CQ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CR4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CS4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CT4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CU4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CV4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CW4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CX4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CY4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CZ4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DA4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DB4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DC4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DD4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DE4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DF4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DG4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DH4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DI4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DJ4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DK4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DL4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DM4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DN4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DO4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DP4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DQ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DR4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DS4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DT4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DU4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DV4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DW4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DX4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DY4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DZ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EA4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EB4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EC4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ED4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EE4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EF4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EG4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EH4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EI4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EJ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EK4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EL4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EM4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EN4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EO4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EP4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EQ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ER4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ES4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="ET4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EU4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EV4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EW4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EX4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EY4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EZ4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FA4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FB4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FC4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FD4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FE4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="FF4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="FG4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="W5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="X5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AB5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AD5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AI5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AP5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AQ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AR5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AS5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AT5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AU5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AV5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AW5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AX5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AY5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AZ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BA5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BB5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BC5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BD5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BE5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BF5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BG5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BH5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BJ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BK5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BL5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BM5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BN5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BO5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BP5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BQ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BR5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BS5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BT5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BU5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BV5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BW5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BX5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BY5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BZ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CA5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CB5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CC5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CD5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CE5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CF5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CG5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CH5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CI5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CJ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CK5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CL5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CM5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CN5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CO5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CP5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CQ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CR5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CS5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CT5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CU5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CV5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CW5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CX5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CY5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CZ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DA5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DB5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DC5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DD5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DE5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DF5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DG5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DH5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DI5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DJ5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DK5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DL5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DM5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DN5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DO5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DP5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="DQ5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="DR5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DS5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DT5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DU5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DV5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DW5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DX5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="DY5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DZ5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EA5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EB5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EC5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="ED5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EE5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EF5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EG5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EH5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EI5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EJ5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EK5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EL5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EM5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EN5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="EO5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EP5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EQ5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="ER5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="ES5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="ET5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EU5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EV5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="EW5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="EX5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="EY5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="EZ5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="FA5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FB5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FC5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FD5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="FE5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="FF5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="FG5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/iqaLookup.xlsx
+++ b/iqaLookup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="559">
   <si>
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
@@ -1560,6 +1560,15 @@
   </si>
   <si>
     <t>today</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-facilitators_and_assessors.assessors.designation__job_title</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-facilitators_and_assessors.assessors.full_name</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-facilitators_and_assessors.assessors.organisation</t>
   </si>
   <si>
     <t>---</t>
@@ -1707,7 +1716,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1728,6 +1737,14 @@
       <color rgb="FF1C2126"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2206,14 +2223,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2222,125 +2236,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,15 +2707,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:TB5"/>
+  <dimension ref="A1:TE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="SK1" workbookViewId="0">
-      <selection activeCell="TA7" sqref="TA7"/>
+      <selection activeCell="TE1" sqref="TE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:522">
+    <row r="1" s="1" customFormat="1" spans="1:525">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4258,1970 +4278,1979 @@
       </c>
       <c r="TB1" s="1" t="s">
         <v>510</v>
+      </c>
+      <c r="TC1" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="TD1" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="TE1" s="4" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:163">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="N2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="O2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="R2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="S2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="T2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="V2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="X2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Y2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Z2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AD2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AE2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AF2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AG2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AH2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AI2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AK2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AL2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AM2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AO2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AP2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AQ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AR2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AS2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AT2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AU2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AV2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AW2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AX2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AY2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AZ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BD2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BE2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BF2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BG2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BH2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BI2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BJ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BK2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BL2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BM2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BN2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BO2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BP2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BQ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BR2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BS2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BT2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BU2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BV2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BW2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BX2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BY2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BZ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CD2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CE2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CF2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CG2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CH2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CI2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CJ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CK2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CL2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CM2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CN2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CO2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CP2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CQ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CR2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CS2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CT2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CU2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CV2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CW2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CX2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CY2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CZ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DD2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DE2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DF2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DG2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DH2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DI2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DJ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DK2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DL2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DM2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DN2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DO2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DP2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DQ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DR2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DS2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DT2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DU2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DV2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DW2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DX2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DY2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DZ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ED2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EE2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EF2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EG2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EH2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EI2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EJ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EK2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EL2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EM2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EN2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EO2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EP2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EQ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ER2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ES2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ET2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EU2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EV2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EW2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EX2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EY2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EZ2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FA2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FB2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FC2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FD2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FE2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="FF2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="FG2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:163">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="J3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="O3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="R3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="S3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="T3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="U3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="V3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="W3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="X3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Y3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Z3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AA3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AB3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AC3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AD3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AE3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AF3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AH3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AI3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AK3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AL3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AM3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AN3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AO3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AP3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AQ3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AR3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AS3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AT3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AU3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AV3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AW3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AX3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AY3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AZ3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BA3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BB3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BC3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="BD3" t="s">
+        <v>532</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>535</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL3" t="s">
         <v>529</v>
       </c>
-      <c r="BE3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>523</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>523</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>531</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>532</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>523</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>523</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>526</v>
-      </c>
       <c r="BM3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BN3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BO3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BP3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BQ3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BR3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BS3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BT3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BU3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BV3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BW3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BX3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BY3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BZ3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CA3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CB3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CC3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CD3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CE3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CF3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CG3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CH3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CI3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CJ3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CK3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CL3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CM3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CN3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CO3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CP3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CQ3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CR3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CS3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CT3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CU3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CV3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CW3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="CX3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="CY3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CZ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DA3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DB3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DC3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DD3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DE3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DF3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DG3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DH3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DI3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DJ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DK3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DL3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DM3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DN3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DO3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DP3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DQ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DR3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DS3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DT3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DU3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DV3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DW3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DX3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DY3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DZ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EA3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EB3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EC3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ED3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EE3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EF3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EG3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EH3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EI3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EJ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EK3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EL3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EM3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EN3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EO3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EP3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EQ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ER3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ES3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="ET3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EU3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EV3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EW3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EX3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EY3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EZ3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FA3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FB3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FC3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FD3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FE3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="FF3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="FG3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:163">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H4" t="s">
+        <v>514</v>
+      </c>
+      <c r="I4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J4" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" t="s">
+        <v>514</v>
+      </c>
+      <c r="L4" t="s">
+        <v>514</v>
+      </c>
+      <c r="M4" t="s">
+        <v>514</v>
+      </c>
+      <c r="N4" t="s">
+        <v>514</v>
+      </c>
+      <c r="O4" t="s">
+        <v>514</v>
+      </c>
+      <c r="P4" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>514</v>
+      </c>
+      <c r="R4" t="s">
+        <v>514</v>
+      </c>
+      <c r="S4" t="s">
+        <v>514</v>
+      </c>
+      <c r="T4" t="s">
+        <v>514</v>
+      </c>
+      <c r="U4" t="s">
+        <v>514</v>
+      </c>
+      <c r="V4" t="s">
+        <v>514</v>
+      </c>
+      <c r="W4" t="s">
+        <v>514</v>
+      </c>
+      <c r="X4" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>514</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>514</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>514</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>514</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>514</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>514</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>514</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>514</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>514</v>
+      </c>
+      <c r="FE4" t="s">
         <v>522</v>
       </c>
-      <c r="H4" t="s">
-        <v>511</v>
-      </c>
-      <c r="I4" t="s">
-        <v>511</v>
-      </c>
-      <c r="J4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K4" t="s">
-        <v>511</v>
-      </c>
-      <c r="L4" t="s">
-        <v>511</v>
-      </c>
-      <c r="M4" t="s">
-        <v>511</v>
-      </c>
-      <c r="N4" t="s">
-        <v>511</v>
-      </c>
-      <c r="O4" t="s">
-        <v>511</v>
-      </c>
-      <c r="P4" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>511</v>
-      </c>
-      <c r="R4" t="s">
-        <v>511</v>
-      </c>
-      <c r="S4" t="s">
-        <v>511</v>
-      </c>
-      <c r="T4" t="s">
-        <v>511</v>
-      </c>
-      <c r="U4" t="s">
-        <v>511</v>
-      </c>
-      <c r="V4" t="s">
-        <v>511</v>
-      </c>
-      <c r="W4" t="s">
-        <v>511</v>
-      </c>
-      <c r="X4" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>511</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>511</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>523</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>523</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>511</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>511</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>511</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>511</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>511</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>511</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>511</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>511</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>511</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>511</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>519</v>
-      </c>
       <c r="FF4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="FG4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:163">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="N5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="O5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="R5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="S5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="T5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="V5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="X5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Y5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Z5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AA5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AB5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AC5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AD5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AE5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AF5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AG5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AH5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AI5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AK5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AL5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AM5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AO5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AP5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AQ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AR5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AS5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AT5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AU5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AV5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AW5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AX5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AY5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AZ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BA5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BB5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BC5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BD5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BE5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BF5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BG5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BH5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BI5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BJ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BK5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BL5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BM5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BN5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BO5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BP5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BQ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BR5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BS5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BT5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BU5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BV5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BW5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BX5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BY5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BZ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CA5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CB5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CC5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CD5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CE5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CF5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CG5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CH5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CI5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CJ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CK5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CL5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CM5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CN5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CO5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CP5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CQ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CR5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CS5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CT5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CU5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CV5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CW5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CX5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CY5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CZ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DA5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DB5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DC5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DD5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DE5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DF5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DG5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DH5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DI5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DJ5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DK5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DL5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DM5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DN5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DO5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DP5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="DQ5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="DR5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="DS5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="DT5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="DU5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="DV5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="DW5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="DX5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="DY5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="DZ5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="EA5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EB5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="EC5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="ED5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="EE5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EF5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="EG5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EH5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="EI5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EJ5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EK5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="EL5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="EM5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EN5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="EO5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EP5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EQ5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="ER5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="ES5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="ET5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EU5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EV5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="EW5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="EX5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="EY5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="EZ5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="FA5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FB5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FC5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FD5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="FE5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="FF5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="FG5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
